--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33093-d506464-Reviews-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-South.h120532.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="740">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2140 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r571037132-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>33093</t>
+  </si>
+  <si>
+    <t>506464</t>
+  </si>
+  <si>
+    <t>571037132</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Property needs to be cleaned up!</t>
+  </si>
+  <si>
+    <t>Stayed here because close to family for visit and pet friendly. Stayed in February also of this year. Same crashed cars unable to be driven still in same spots in parking lot. Same broken down trailer on wood blocks in parking lot. Same groups of people hanging in back parking lot partying all night. Trash bags left in hallways and stairwells. Asked front desk for two extra pillows. Was told that operating on such a low budget they didn’t have any. Directed me to nearest Target where I could buy some “Two for seven dollars”. Later received a call they had found two, but didn’t have pillowcases. Really? Flabbergasted. I thought last time was just a bad week for the area. But obviously they don’t care about regular guests opinions or reviews left last time. Rooms are clean though!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here because close to family for visit and pet friendly. Stayed in February also of this year. Same crashed cars unable to be driven still in same spots in parking lot. Same broken down trailer on wood blocks in parking lot. Same groups of people hanging in back parking lot partying all night. Trash bags left in hallways and stairwells. Asked front desk for two extra pillows. Was told that operating on such a low budget they didn’t have any. Directed me to nearest Target where I could buy some “Two for seven dollars”. Later received a call they had found two, but didn’t have pillowcases. Really? Flabbergasted. I thought last time was just a bad week for the area. But obviously they don’t care about regular guests opinions or reviews left last time. Rooms are clean though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r569017027-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>569017027</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>2 day weekend trip</t>
+  </si>
+  <si>
+    <t>Very nice staff who were attentive and punctual.  Anything I needed, they took care of. I was very happy with the service and will be coming here again.  The location is great whether its for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Very nice staff who were attentive and punctual.  Anything I needed, they took care of. I was very happy with the service and will be coming here again.  The location is great whether its for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r568565431-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>568565431</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Worst Hotel and Service of All Time - Stay Away at all costs!</t>
+  </si>
+  <si>
+    <t>I seriously regret every considering trying this place.  Absolutely the worst hotel with the worst service from Natalia ever.  We absolutely without fail booked a 2 queen room from Priceline and when we arrived at  10 pm they had only 1 queen for our family of 4.  We were told to contact Priceline.  They contacted the hotel to find that no rooms were available and then came back to us insisting that we only booked 1 bed after finding out that no 2 bed rooms were available.During the previous encounter with Natalia when we asked for extra pillows/bedding or a pull away bed to accomodate but she insisted there weren't any. After priceline called them, suddenly it became available but for an extra $10.  This whole scenario was a joke plus when we entered the room the garbage including Subway sandwich wrappers were still all over the kitchen!  Place was not properly prepared.  Rude service and horrible everything.   We found out that if you don't check in by 6pm despite prepaying for the room they give your room away!  The worst part is they deny your original configuraion.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>I seriously regret every considering trying this place.  Absolutely the worst hotel with the worst service from Natalia ever.  We absolutely without fail booked a 2 queen room from Priceline and when we arrived at  10 pm they had only 1 queen for our family of 4.  We were told to contact Priceline.  They contacted the hotel to find that no rooms were available and then came back to us insisting that we only booked 1 bed after finding out that no 2 bed rooms were available.During the previous encounter with Natalia when we asked for extra pillows/bedding or a pull away bed to accomodate but she insisted there weren't any. After priceline called them, suddenly it became available but for an extra $10.  This whole scenario was a joke plus when we entered the room the garbage including Subway sandwich wrappers were still all over the kitchen!  Place was not properly prepared.  Rude service and horrible everything.   We found out that if you don't check in by 6pm despite prepaying for the room they give your room away!  The worst part is they deny your original configuraion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r546918597-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>546918597</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>A horrible experience</t>
+  </si>
+  <si>
+    <t>We stayed here when we were evacuated from our  home due to fire.  We reserved two rooms for 4 people plus dog, but when we got there, they could not find reservation.  We waited 2 1/2 hours (from 3 am to 5:30 am) while incompetent woman at desk who barely spoke English s-l-o-w-l-y checked in only 3 other parties.  After telling us there were "zero rooms" she finally found a room with 1 bed for the 5 of us.  At breakfast, coffee was empty, no food.  Rather than be a respite from the fire, this experience added to our misery.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here when we were evacuated from our  home due to fire.  We reserved two rooms for 4 people plus dog, but when we got there, they could not find reservation.  We waited 2 1/2 hours (from 3 am to 5:30 am) while incompetent woman at desk who barely spoke English s-l-o-w-l-y checked in only 3 other parties.  After telling us there were "zero rooms" she finally found a room with 1 bed for the 5 of us.  At breakfast, coffee was empty, no food.  Rather than be a respite from the fire, this experience added to our misery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r544879617-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>544879617</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>check the bathroom!!</t>
+  </si>
+  <si>
+    <t>we start with bad bathroom, there's no relaxing shower in the bathtub, it has a hole, it doesn' t keep the water, besides u have a cup for water but no botles of water and if u have to wait around 30 min for check in because there's no people, do u think u gonna find someone to help...I really doubt it!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>we start with bad bathroom, there's no relaxing shower in the bathtub, it has a hole, it doesn' t keep the water, besides u have a cup for water but no botles of water and if u have to wait around 30 min for check in because there's no people, do u think u gonna find someone to help...I really doubt it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r537785476-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>537785476</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Unclean and Unprofessional Assitant Managment</t>
+  </si>
+  <si>
+    <t>Customer service is what will make or break a business. It is the customers money a business needs and there are always other places that offer better service that get more money. Management should know this but if management appearance is unpainted fingernails and wrinkled clothes it means there isn't a big push for cleanliness - clerks were better looking and cleaner and most importantly HELPFUL.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Customer service is what will make or break a business. It is the customers money a business needs and there are always other places that offer better service that get more money. Management should know this but if management appearance is unpainted fingernails and wrinkled clothes it means there isn't a big push for cleanliness - clerks were better looking and cleaner and most importantly HELPFUL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r513282319-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>513282319</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Ok Stay for us just pass n through one night</t>
+  </si>
+  <si>
+    <t>We had a family reunion in another town, on our way back home drove through Simi Valley and stayed at the Extended Stay America on Stearns St. Noticed several cars parked in parking lot that had been there a while including one with a very flat tire, not sure why those cars were still there. We did have our 19 Lb pet dog with us.We did notice a smell in hallway of second floor, so not so clean. The room was good, clean withgood floor plan for us, oversize handicap room. The staff was a bit disengaged towards guest, which was a bit surprising  as we had two other couples with us for a total of three rooms rented. The location was good and The value for Simi Valley was goodMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>We had a family reunion in another town, on our way back home drove through Simi Valley and stayed at the Extended Stay America on Stearns St. Noticed several cars parked in parking lot that had been there a while including one with a very flat tire, not sure why those cars were still there. We did have our 19 Lb pet dog with us.We did notice a smell in hallway of second floor, so not so clean. The room was good, clean withgood floor plan for us, oversize handicap room. The staff was a bit disengaged towards guest, which was a bit surprising  as we had two other couples with us for a total of three rooms rented. The location was good and The value for Simi Valley was goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r507645526-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>507645526</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly and clean (mostly)</t>
+  </si>
+  <si>
+    <t>The hotel was clean for the most part, except upon arrival the outside garbage cans were overflowing with trash, but later emptied the next day. The hotel may want to invest in large cans or promote the ability to cook in the rooms to guests when reserving rooms.  Most of the trash was from take out containers from nearby restaurants. Pet friendly: floors are 'hardwood flooring'; pet areas around the hotel are mostly dirt with some wood chips.  It would be nice if pet owners would pick up after their dogs.  The hotel even provides poo bags (thank you) on the grounds!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, Front Office Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was clean for the most part, except upon arrival the outside garbage cans were overflowing with trash, but later emptied the next day. The hotel may want to invest in large cans or promote the ability to cook in the rooms to guests when reserving rooms.  Most of the trash was from take out containers from nearby restaurants. Pet friendly: floors are 'hardwood flooring'; pet areas around the hotel are mostly dirt with some wood chips.  It would be nice if pet owners would pick up after their dogs.  The hotel even provides poo bags (thank you) on the grounds!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r507260720-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>507260720</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Deceptive advertising</t>
+  </si>
+  <si>
+    <t>We had 3 adults and 2 children and booked through bookings.com. We used Booking.com search which allowed us to specify number of children, which was not available on other sites. We thought we found a good fit for our hotel and specified in the special request that we needed a rollaway bed. When we arrived, Extended Stay said we didn't make such request and the only rollaway bed available had to be given to a hotel guest who only had one queen bed (very strange reason). The manager showed me their booking form and it only had the first line from our special request communicated by Booking.com. We called Booking.com and they said the hotel does not have to honor our request because the terms said it is up to the hotel to honor our request. Their confirmation email had listed the entire special request even though the hotel's booking form had only a part of it. We asked for the discrepancy and they said they are sorry but there is nothing they can do for us. The only thing they can do is to cancel our reservation and give us a list for other hotels in the area. We asked how much time we have and the reply was less than an hour, 6pm. Terrible services both from Booking.com and Extended Stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We had 3 adults and 2 children and booked through bookings.com. We used Booking.com search which allowed us to specify number of children, which was not available on other sites. We thought we found a good fit for our hotel and specified in the special request that we needed a rollaway bed. When we arrived, Extended Stay said we didn't make such request and the only rollaway bed available had to be given to a hotel guest who only had one queen bed (very strange reason). The manager showed me their booking form and it only had the first line from our special request communicated by Booking.com. We called Booking.com and they said the hotel does not have to honor our request because the terms said it is up to the hotel to honor our request. Their confirmation email had listed the entire special request even though the hotel's booking form had only a part of it. We asked for the discrepancy and they said they are sorry but there is nothing they can do for us. The only thing they can do is to cancel our reservation and give us a list for other hotels in the area. We asked how much time we have and the reply was less than an hour, 6pm. Terrible services both from Booking.com and Extended Stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r501604548-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>501604548</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay.</t>
+  </si>
+  <si>
+    <t>There is a gas station, small store, several restaurants and even a bowling alley all in walking distance. The store was open late so I was able to get  snacks and refreshments for the family. The parking lot was well lit and felt safe. Several guests were outside walking their pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>There is a gas station, small store, several restaurants and even a bowling alley all in walking distance. The store was open late so I was able to get  snacks and refreshments for the family. The parking lot was well lit and felt safe. Several guests were outside walking their pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r500337384-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>500337384</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>If you must, it will do.</t>
+  </si>
+  <si>
+    <t>It's clean enough, and there is a kitchen. Blankets and bed are a far cry from cozy, kitchen accessories are no longer in the room but can be picked up at the front desk. It's not particularly unsafe, it's just not a very cushy accommodation. The price matches the quality...it's like the motel 6 or holiday inn express or other budget brand added a kitchen. We saved on meals out but were glad to go when the time came. No frills but no bedbugs so I guess that's also a plus. Smoker and pet friendly. Great donut shop in the shopping center adjacent. Under the govt per diem. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>It's clean enough, and there is a kitchen. Blankets and bed are a far cry from cozy, kitchen accessories are no longer in the room but can be picked up at the front desk. It's not particularly unsafe, it's just not a very cushy accommodation. The price matches the quality...it's like the motel 6 or holiday inn express or other budget brand added a kitchen. We saved on meals out but were glad to go when the time came. No frills but no bedbugs so I guess that's also a plus. Smoker and pet friendly. Great donut shop in the shopping center adjacent. Under the govt per diem. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r500598099-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>500598099</t>
+  </si>
+  <si>
+    <t>Nice Stay in quiet neighborhood</t>
+  </si>
+  <si>
+    <t>We came from abroad an stayed in this convenient place close to our friend's house in a quiet neighborhood. Were very satisfied with location and service. Breakfast could be better. Definitely recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We came from abroad an stayed in this convenient place close to our friend's house in a quiet neighborhood. Were very satisfied with location and service. Breakfast could be better. Definitely recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r532509340-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>532509340</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 months with another two months to go.  Clean and comfortable accommodations at a reasonable price. Terrific staff!  Most issues resolved in a timely manner.  Internet is slow.  Pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 months with another two months to go.  Clean and comfortable accommodations at a reasonable price. Terrific staff!  Most issues resolved in a timely manner.  Internet is slow.  Pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r498231176-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>498231176</t>
+  </si>
+  <si>
+    <t>Condo style room</t>
+  </si>
+  <si>
+    <t>It was a nice and comfy room. Bed could have been softer. I like the amenities of the hotel. Breakfast is included. The hotel is a great location to break a long drive from Santa Maria to San Diego. RN 119 smells like sweat but other than that it was a great day there.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>It was a nice and comfy room. Bed could have been softer. I like the amenities of the hotel. Breakfast is included. The hotel is a great location to break a long drive from Santa Maria to San Diego. RN 119 smells like sweat but other than that it was a great day there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r497345405-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>497345405</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Quick getaway</t>
+  </si>
+  <si>
+    <t>It was too hot and needed a cool getaway where my son and his dog to visit me in a cool place. My son is homeless with a dog in this heat is hard for me sometimes so I get a room where we can visit and get him off the streets for a shower and mealMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>It was too hot and needed a cool getaway where my son and his dog to visit me in a cool place. My son is homeless with a dog in this heat is hard for me sometimes so I get a room where we can visit and get him off the streets for a shower and mealMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r494445764-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>494445764</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>I don't understand what this means</t>
+  </si>
+  <si>
+    <t>The hotel was very poor at customer service  when i arrived back on 6.18.71 I wanted to re stay at hotel but as i came back i was turned away. i reserved my room on time and it was set but upon my arrival for check in on 6-18-17 i was turned away.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very poor at customer service  when i arrived back on 6.18.71 I wanted to re stay at hotel but as i came back i was turned away. i reserved my room on time and it was set but upon my arrival for check in on 6-18-17 i was turned away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r493663737-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>493663737</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Poor management</t>
+  </si>
+  <si>
+    <t>The house keeping needs to improve the cleaning schedules on the weekly guests and have people to clean the rooms. The front desk could use some help with the reservations and the people staying are loud on the weekends.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>The house keeping needs to improve the cleaning schedules on the weekly guests and have people to clean the rooms. The front desk could use some help with the reservations and the people staying are loud on the weekends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r493434258-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>493434258</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Beware!</t>
+  </si>
+  <si>
+    <t>Check for proper operation of the plumbing when you first come in the room.  The hotel doesn't inspect for this.  I wound up holding a meeting with my European clients without the benefit of a working shower.. I doubt that impressed them in a positive way!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Check for proper operation of the plumbing when you first come in the room.  The hotel doesn't inspect for this.  I wound up holding a meeting with my European clients without the benefit of a working shower.. I doubt that impressed them in a positive way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r492298287-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>492298287</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great location by the HWY. Near a shopping center with a subway. In &amp; out burger down the street. Staff is always nice and helpful. Laundry, snack machine available. Rooms are decent with kitchen and fridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Great location by the HWY. Near a shopping center with a subway. In &amp; out burger down the street. Staff is always nice and helpful. Laundry, snack machine available. Rooms are decent with kitchen and fridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r491843739-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>491843739</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Pathetic</t>
+  </si>
+  <si>
+    <t>The hotel was Overpriced &amp; dated. No value for money. Hardly anything for breakfast. Staff was too slow at the time of check in. Our key stopped working after one day. There was only one elevator for the whole hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was Overpriced &amp; dated. No value for money. Hardly anything for breakfast. Staff was too slow at the time of check in. Our key stopped working after one day. There was only one elevator for the whole hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r491776997-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>491776997</t>
+  </si>
+  <si>
+    <t>Unhelpful staff</t>
+  </si>
+  <si>
+    <t>Somehow, bookings.com didnt make the booking. But the receptionist didnt allow us to connect online to skype call bookings.com.To be fair, the receptionist was the only one manning the counter and managing the cleaners. Understaffed. 2. I dont like that the room I stayed had pets living in it as being a dog owner, I know that pets can have fleas and we saw an insect scurrying inside the room. They should seperate the floors for pets and non pet stayers.3. Breakfast was pathetic other than the drinks and cereal.bars. All sweet stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Somehow, bookings.com didnt make the booking. But the receptionist didnt allow us to connect online to skype call bookings.com.To be fair, the receptionist was the only one manning the counter and managing the cleaners. Understaffed. 2. I dont like that the room I stayed had pets living in it as being a dog owner, I know that pets can have fleas and we saw an insect scurrying inside the room. They should seperate the floors for pets and non pet stayers.3. Breakfast was pathetic other than the drinks and cereal.bars. All sweet stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r488164923-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>488164923</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>By far and away the best value for the money</t>
+  </si>
+  <si>
+    <t>This motel was a very happy surprise.  The room was in excellent condition, very clean, and also appealing.  I felt like I was in a brand new model apartment and not a motel.  The location was convenient and it was quiet.  I can't say enough about how wonderful this experience was and on top of it all the value was beyond compare.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>This motel was a very happy surprise.  The room was in excellent condition, very clean, and also appealing.  I felt like I was in a brand new model apartment and not a motel.  The location was convenient and it was quiet.  I can't say enough about how wonderful this experience was and on top of it all the value was beyond compare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r488058773-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>488058773</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Horrible Servie</t>
+  </si>
+  <si>
+    <t>Holiday weekend. &amp; a big music festival in town.  One desk employee with poor English checking people in. Took an hour to get checked in. Kitchen had no dishes, no coffee pot, nothing. Horrible customer service! "Breakfast" consisted of granola bars!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday weekend. &amp; a big music festival in town.  One desk employee with poor English checking people in. Took an hour to get checked in. Kitchen had no dishes, no coffee pot, nothing. Horrible customer service! "Breakfast" consisted of granola bars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r486545713-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>486545713</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Given wrong room.</t>
+  </si>
+  <si>
+    <t>We booked a non smoking room online then when we arrived was told there are no non smoking room available..we were given a smoking room..since we both don't smoke the smell was annoying. They should check availability of the rooms before taking reservations..MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>We booked a non smoking room online then when we arrived was told there are no non smoking room available..we were given a smoking room..since we both don't smoke the smell was annoying. They should check availability of the rooms before taking reservations..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r475580828-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>475580828</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Awful hotel</t>
+  </si>
+  <si>
+    <t>Our bathroom was being renovated and we had to rent a room for about 5 days.  Extended Stay Simi Valley had a weekly rate and the reviews were somewhat good.  When we checked in there was a sign at the front desk saying the clerk was on break.  45 minutes later she returned and checked us in.  Hallway reeked of cigarette and weed.  Room smelled like a chimney and we were told it was a nonsmoking room and hotel.  There was a man in a wheelchair who kept asking us to help him.  The people in the room next to us were fighting at 2 am.  We tried calling the front desk but no answer.  I went to the front desk and that on a break sign was up.  We had enough after two nights so we took off and for $20.00 more a night, stayed at the Marriott.  When we checked out of Extended Stay the front desk person asked us to fill out some customer service survey and give them all high marks after we said the hotel was awful and the room and hallways reeked of cigarette and weed.   Worst hotel we have stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Our bathroom was being renovated and we had to rent a room for about 5 days.  Extended Stay Simi Valley had a weekly rate and the reviews were somewhat good.  When we checked in there was a sign at the front desk saying the clerk was on break.  45 minutes later she returned and checked us in.  Hallway reeked of cigarette and weed.  Room smelled like a chimney and we were told it was a nonsmoking room and hotel.  There was a man in a wheelchair who kept asking us to help him.  The people in the room next to us were fighting at 2 am.  We tried calling the front desk but no answer.  I went to the front desk and that on a break sign was up.  We had enough after two nights so we took off and for $20.00 more a night, stayed at the Marriott.  When we checked out of Extended Stay the front desk person asked us to fill out some customer service survey and give them all high marks after we said the hotel was awful and the room and hallways reeked of cigarette and weed.   Worst hotel we have stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r472799857-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>472799857</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Management really needs to Address issues here with Staff!!!</t>
+  </si>
+  <si>
+    <t>From the time we checked in we had issues!!!! We booked a room for one rate and was charged a completely different rate!!! When asked about the promotional rate we were told we had to pay in full at check in then it would be refunded the day we leave!!! 1st off I don't know any hotel that makes u pay for the hotel day of check in in full but a hourly motel!!! Needless to say at Check out u had to Request your refund!!! Then they insist on only using a card u check in with i feel if I want to change which card I'm paying with that's MY BUSINESS!!!
+I ALSO HATED HAVING TO ALWAYS GO DOWNSTAIRS IF I NEEDED ANYTHING!! TISSUE SOAP UTENSILS!! THEY DON'T OFFER TO BRING ANYTHING TO U!! 
+BREAKFAST IS A JOKE!! THERE'S JUST GRANOLA BARS AND COFFEE 
+ Then we had a incident were someone's dog on our hall pooped by our door and  it was trails down the hallway!! We told the staff that afternoon! Well when we came back that evening what surprise did we have waiting for us at our door??? The same Dog Pooped that was there when we left at about 1pm
+We called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we...From the time we checked in we had issues!!!! We booked a room for one rate and was charged a completely different rate!!! When asked about the promotional rate we were told we had to pay in full at check in then it would be refunded the day we leave!!! 1st off I don't know any hotel that makes u pay for the hotel day of check in in full but a hourly motel!!! Needless to say at Check out u had to Request your refund!!! Then they insist on only using a card u check in with i feel if I want to change which card I'm paying with that's MY BUSINESS!!!I ALSO HATED HAVING TO ALWAYS GO DOWNSTAIRS IF I NEEDED ANYTHING!! TISSUE SOAP UTENSILS!! THEY DON'T OFFER TO BRING ANYTHING TO U!! BREAKFAST IS A JOKE!! THERE'S JUST GRANOLA BARS AND COFFEE  Then we had a incident were someone's dog on our hall pooped by our door and  it was trails down the hallway!! We told the staff that afternoon! Well when we came back that evening what surprise did we have waiting for us at our door??? The same Dog Pooped that was there when we left at about 1pmWe called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we woke up to go out the next morning  the same poop was still on the side of our door lingering down the hall!!! YESSSSS ALLLLLL DAY LONG!!!! I then went downstairs to ask why it had not be clean Like our room had not also Been clean all she could stay about the room was oohhhhhh not sorry or anything so I said forget the room want about the dog poop she said that's not the hotels responsibility to clean the guest poop they know that when they check in!! I'm explained to her that it has been there in the hallway by our door for more than 24hours which means house keeping and everyone else had to see it. She agains tell me that's not there problem!!! Floored by this I asked for a Manager to address my concerns and of course no manager is there checkout rolls around and were still asking for a Manager to express our concerns still no manager no call no anything!!! We Spend well over 400. For a Dump of a Trip in a BEAUTIFUL AROUND THAT'S BEING RAN DOWN BY THIS HOTEL!!!I'M SO BEYOND DISCUSSED!!!I WILL BE CONTACTING CORPORATE SINCE THEY HAVE NO MANAGEMENT THAT COULD ADDRESS OUR ISSUES!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>From the time we checked in we had issues!!!! We booked a room for one rate and was charged a completely different rate!!! When asked about the promotional rate we were told we had to pay in full at check in then it would be refunded the day we leave!!! 1st off I don't know any hotel that makes u pay for the hotel day of check in in full but a hourly motel!!! Needless to say at Check out u had to Request your refund!!! Then they insist on only using a card u check in with i feel if I want to change which card I'm paying with that's MY BUSINESS!!!
+I ALSO HATED HAVING TO ALWAYS GO DOWNSTAIRS IF I NEEDED ANYTHING!! TISSUE SOAP UTENSILS!! THEY DON'T OFFER TO BRING ANYTHING TO U!! 
+BREAKFAST IS A JOKE!! THERE'S JUST GRANOLA BARS AND COFFEE 
+ Then we had a incident were someone's dog on our hall pooped by our door and  it was trails down the hallway!! We told the staff that afternoon! Well when we came back that evening what surprise did we have waiting for us at our door??? The same Dog Pooped that was there when we left at about 1pm
+We called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we...From the time we checked in we had issues!!!! We booked a room for one rate and was charged a completely different rate!!! When asked about the promotional rate we were told we had to pay in full at check in then it would be refunded the day we leave!!! 1st off I don't know any hotel that makes u pay for the hotel day of check in in full but a hourly motel!!! Needless to say at Check out u had to Request your refund!!! Then they insist on only using a card u check in with i feel if I want to change which card I'm paying with that's MY BUSINESS!!!I ALSO HATED HAVING TO ALWAYS GO DOWNSTAIRS IF I NEEDED ANYTHING!! TISSUE SOAP UTENSILS!! THEY DON'T OFFER TO BRING ANYTHING TO U!! BREAKFAST IS A JOKE!! THERE'S JUST GRANOLA BARS AND COFFEE  Then we had a incident were someone's dog on our hall pooped by our door and  it was trails down the hallway!! We told the staff that afternoon! Well when we came back that evening what surprise did we have waiting for us at our door??? The same Dog Pooped that was there when we left at about 1pmWe called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we woke up to go out the next morning  the same poop was still on the side of our door lingering down the hall!!! YESSSSS ALLLLLL DAY LONG!!!! I then went downstairs to ask why it had not be clean Like our room had not also Been clean all she could stay about the room was oohhhhhh not sorry or anything so I said forget the room want about the dog poop she said that's not the hotels responsibility to clean the guest poop they know that when they check in!! I'm explained to her that it has been there in the hallway by our door for more than 24hours which means house keeping and everyone else had to see it. She agains tell me that's not there problem!!! Floored by this I asked for a Manager to address my concerns and of course no manager is there checkout rolls around and were still asking for a Manager to express our concerns still no manager no call no anything!!! We Spend well over 400. For a Dump of a Trip in a BEAUTIFUL AROUND THAT'S BEING RAN DOWN BY THIS HOTEL!!!I'M SO BEYOND DISCUSSED!!!I WILL BE CONTACTING CORPORATE SINCE THEY HAVE NO MANAGEMENT THAT COULD ADDRESS OUR ISSUES!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r461594654-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>461594654</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Management insists</t>
+  </si>
+  <si>
+    <t>I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for...I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for the duration. My father and management started to get heated up about the situation. My father voiced his feelings about stupid rules and management felt they had been called stupid. My father than proceeded to defuse the situation and apologized for his manner. Management accepted but still insisted on the credit card. My father explained the only way to pay for the room under these circumstances were he would have to involve his mother. (Grandmother walks with a cane has diabetes and arthritis and is 84 years old and can no longer drive). Management said, Fine. I hung up from my father and called my grandmother who was willing to help. I came back one hour later with her in the rain. Management won a pitiful war. She paid for the room and my father reimbursed her when he returned. I was slighted, my family was insulted. So does this answer any negative or positive aspects of my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for...I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for the duration. My father and management started to get heated up about the situation. My father voiced his feelings about stupid rules and management felt they had been called stupid. My father than proceeded to defuse the situation and apologized for his manner. Management accepted but still insisted on the credit card. My father explained the only way to pay for the room under these circumstances were he would have to involve his mother. (Grandmother walks with a cane has diabetes and arthritis and is 84 years old and can no longer drive). Management said, Fine. I hung up from my father and called my grandmother who was willing to help. I came back one hour later with her in the rain. Management won a pitiful war. She paid for the room and my father reimbursed her when he returned. I was slighted, my family was insulted. So does this answer any negative or positive aspects of my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r446851092-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>446851092</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Pet Friendly Budget Hotel</t>
+  </si>
+  <si>
+    <t>This is a pet friendly hotel, if you don’t like dogs or cats, STAY AWAY.I stayed here for a night and mostly used the room only for sleeping at night. Room was clean &amp; spacious with a view of the parking lot, mattress were comfortable and HBO on the LCD TV was a plus. If you wish to eat out, there a plenty of restaurants in the vicinity. Breakfast was a deal breaker, just some fruits, muffin and yogurt.Overall OK hotel, if you wish to stay here for a night. But if you compare the cost, then it’s not worth the $$$ they are charging.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r445446949-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>445446949</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!!!</t>
+  </si>
+  <si>
+    <t>My sister and I traveled to Simi Valley for a funeral and had to stay at this hotel for 5 days. Worse hotel ever. We should have known when we were told that housekeeping cleans the room every 7 days. REALLY!!! The first room we were given reeked of cigarette. We were given another room that had a stopped up bath tub and sink. Stains on the dust ruffles of the beds. Outside was even worse. This hotel houses homeless people, most with dogs. Dog poop on the gravel in the walkways. Garbage throughout the parking area and at one time the lights went out for more than 2 hours. They claim to serve a continental breakfast but it's only small packaged muffins and coffee. We were charged 120.00 a night. I do not recommend this hotel to ANYONE and will NEVER stay there again. The people at the front desk were not polite at all. Useless people if you ask me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My sister and I traveled to Simi Valley for a funeral and had to stay at this hotel for 5 days. Worse hotel ever. We should have known when we were told that housekeeping cleans the room every 7 days. REALLY!!! The first room we were given reeked of cigarette. We were given another room that had a stopped up bath tub and sink. Stains on the dust ruffles of the beds. Outside was even worse. This hotel houses homeless people, most with dogs. Dog poop on the gravel in the walkways. Garbage throughout the parking area and at one time the lights went out for more than 2 hours. They claim to serve a continental breakfast but it's only small packaged muffins and coffee. We were charged 120.00 a night. I do not recommend this hotel to ANYONE and will NEVER stay there again. The people at the front desk were not polite at all. Useless people if you ask me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r437216094-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>437216094</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet</t>
+  </si>
+  <si>
+    <t>The facility is located off the freeway. The facility has been remodeled. The rooms have kitchenettes. The facility is very quiet. They offer free Wi-Fi and breakfast snacks. Generally nice personnel and cable TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>The facility is located off the freeway. The facility has been remodeled. The rooms have kitchenettes. The facility is very quiet. They offer free Wi-Fi and breakfast snacks. Generally nice personnel and cable TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r430867718-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>430867718</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Not for an Overnight</t>
+  </si>
+  <si>
+    <t>We travel to Simi Valley often to visit family. This time we decided to try Extended Say. Very bad choice. We like to check in early stopped by at noon they said call about 2pm to check on room availability. Called they said room is ready, got there started check-in opps wrong room type. They said room would be ready in 20 to 30 minutes. Ended up sitting in lobby for an hour being told just a couple of more minutes. The room was fine for an extended stay but not we like for a couple of nights. No carpet, no in room coffee, large frig no ice, no pool and free breakfast is plastic wraped muffins. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We travel to Simi Valley often to visit family. This time we decided to try Extended Say. Very bad choice. We like to check in early stopped by at noon they said call about 2pm to check on room availability. Called they said room is ready, got there started check-in opps wrong room type. They said room would be ready in 20 to 30 minutes. Ended up sitting in lobby for an hour being told just a couple of more minutes. The room was fine for an extended stay but not we like for a couple of nights. No carpet, no in room coffee, large frig no ice, no pool and free breakfast is plastic wraped muffins. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r410250193-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>410250193</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Would Never Stay There Again: Reeks of Smoke and Very Expensive</t>
+  </si>
+  <si>
+    <t>My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were...My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were not even painted over. What a disappointment:(MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were...My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were not even painted over. What a disappointment:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r404737140-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>404737140</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Plain (but pricey) motel</t>
+  </si>
+  <si>
+    <t>I stayed there one night, on a Saturday night.The room was a bit odd, in that it had hard floors.  I'd have expected that to cause more noise, but it wasn't bad, at least on a weekend.The room had a 2-burner electric coil stove, a full-sized fridge and a small microwave.The bed was fine, and there was a recliner chair, which was a nice touch.Breakfast was totally minimal: packaged muffins and granola bars, regular coffee (no decaf), and hot water for making tea or hot chocolate.All in all, it was fine, if a bit pricey.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there one night, on a Saturday night.The room was a bit odd, in that it had hard floors.  I'd have expected that to cause more noise, but it wasn't bad, at least on a weekend.The room had a 2-burner electric coil stove, a full-sized fridge and a small microwave.The bed was fine, and there was a recliner chair, which was a nice touch.Breakfast was totally minimal: packaged muffins and granola bars, regular coffee (no decaf), and hot water for making tea or hot chocolate.All in all, it was fine, if a bit pricey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r391938177-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>391938177</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Terrible Motel</t>
+  </si>
+  <si>
+    <t>I made a huge mistake of booking a room here through Hotwire. This is NOT a real hotel. It's a poorly run MOTEL that provides house keeping services only once a week, Don't waste your money here- there are much nicer hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>I made a huge mistake of booking a room here through Hotwire. This is NOT a real hotel. It's a poorly run MOTEL that provides house keeping services only once a week, Don't waste your money here- there are much nicer hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r381509920-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>381509920</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>It's OK..I gave it a 2nd chance...</t>
+  </si>
+  <si>
+    <t>...was in Simi for a night, and gave   the hotel a second chance...Stayed here last summer and there were problems. This time it was okay, but there was a new front desk clerk who shouldn't have been left alone. He was very nice, but still needed help.They put me in a pet room with no carpet, and I didn't really like that. They moved me to a better room, so all was well.I was only in the room to sleep, so I did not partake in their grab n go snack... There was hot coffee and that is all that mattered.I would stay here again, but I hope they work on their staff...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>...was in Simi for a night, and gave   the hotel a second chance...Stayed here last summer and there were problems. This time it was okay, but there was a new front desk clerk who shouldn't have been left alone. He was very nice, but still needed help.They put me in a pet room with no carpet, and I didn't really like that. They moved me to a better room, so all was well.I was only in the room to sleep, so I did not partake in their grab n go snack... There was hot coffee and that is all that mattered.I would stay here again, but I hope they work on their staff...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r380292807-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>380292807</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Room too hot, and Omar is a jerk.</t>
+  </si>
+  <si>
+    <t>The girl at does the night check in is very nice, but the guy (Omar) in the morning is a complete jerk.  They ran out of coffee before 8:00am and the "grab and go" breakfast was also completely put away before 8:00.  Has a full kitchen, but you have to request every dish, including a coffee maker, which you should since there will not be any coffee left in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>The girl at does the night check in is very nice, but the guy (Omar) in the morning is a complete jerk.  They ran out of coffee before 8:00am and the "grab and go" breakfast was also completely put away before 8:00.  Has a full kitchen, but you have to request every dish, including a coffee maker, which you should since there will not be any coffee left in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r370131712-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>370131712</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Great for the Money</t>
+  </si>
+  <si>
+    <t>Great locational and new building. Full size refrigerator is a huge plus.  The "breakfast" is a joke so they should just say free coffee. The room was quite and perfect for a solo or couple. much better option that other inexpensive hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Great locational and new building. Full size refrigerator is a huge plus.  The "breakfast" is a joke so they should just say free coffee. The room was quite and perfect for a solo or couple. much better option that other inexpensive hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r365851331-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>365851331</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL EXPERIENCE</t>
+  </si>
+  <si>
+    <t>My wife and I have been staying here for the past six months. Love every minute of it. The location is fabulous. The very large room and the wonderful amenities can't be beat. Extremely clean, comfortable and quite. Just like home! The staff treats us like Royalty. We especially appreciate the kindness that we receive from Dionne, Shery, Maria, Amar and Michael. But above all, this all happens because of the manger, Chris Govani. Chris is absolutely unbelievable. He runs this hotel as if it were a5 Star establishment. And it really should receive that rating. Thanks Chris for 6 great months.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I have been staying here for the past six months. Love every minute of it. The location is fabulous. The very large room and the wonderful amenities can't be beat. Extremely clean, comfortable and quite. Just like home! The staff treats us like Royalty. We especially appreciate the kindness that we receive from Dionne, Shery, Maria, Amar and Michael. But above all, this all happens because of the manger, Chris Govani. Chris is absolutely unbelievable. He runs this hotel as if it were a5 Star establishment. And it really should receive that rating. Thanks Chris for 6 great months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r365272546-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>365272546</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>wE cALLED THE GUY BUT...</t>
+  </si>
+  <si>
+    <t>iI stopped here on my way to Santa Barbara.  The internet was not working when I arrived in the afternoon.  It was not working when I left the next morning.  This is not acceptable when vital communication is needed while on a trip, but not available.In addition, this is a stick built structure, not poured concrete.  As a result you clearly hear the other guests as they move about on they move about on the floor above you.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>iI stopped here on my way to Santa Barbara.  The internet was not working when I arrived in the afternoon.  It was not working when I left the next morning.  This is not acceptable when vital communication is needed while on a trip, but not available.In addition, this is a stick built structure, not poured concrete.  As a result you clearly hear the other guests as they move about on they move about on the floor above you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r317195973-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>317195973</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Always clean, quiet and nearly perfect</t>
+  </si>
+  <si>
+    <t>The staff is great. The rooms are what travelers want for a good night's sleep and even the option to make your own breakfast and other meals with a full kitchen in every room. Easy reservation process via the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>The staff is great. The rooms are what travelers want for a good night's sleep and even the option to make your own breakfast and other meals with a full kitchen in every room. Easy reservation process via the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r313156175-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>313156175</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great area</t>
+  </si>
+  <si>
+    <t>Very nice and staff was professional. Cleaning service comes in everyday if you request. You receive dishes, towels, etc upon request as well. Stores and shopping is close by. Perhaps forty five minutes from LAX airport. They provided directions to restaurants and other areas of interest.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Very nice and staff was professional. Cleaning service comes in everyday if you request. You receive dishes, towels, etc upon request as well. Stores and shopping is close by. Perhaps forty five minutes from LAX airport. They provided directions to restaurants and other areas of interest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r310236269-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>310236269</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Be honest with yourself you stay here for...</t>
+  </si>
+  <si>
+    <t>Economy and Convenience.Those two things summarize why we like this brand and this stay for us was just that.We stayed here out of need when visiting friends nearby and did not want to inconvenience them. It was relatively cheap and easy to get to.The room itself is your basic ESA room: double bed, TV, A/C, "kitchen", full size fridge, and your basic bathroom.The staff here was very professional and helpful when compared to other ESA that we have stayed at so kudos them :) Nothing in particular about the room impressed us about this location, it was what we expected except for a big no-no for me...pubic hairs on the toilet!I am writing this review on my desktop but pictures are on my phone, but I'll spare you all the pics, unless I'm asked by someone to upload them.To management: please have your cleaning staff pay attention to detail when cleaning the rooms. Hygiene is not a negotiable point for us no matter how little we pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Economy and Convenience.Those two things summarize why we like this brand and this stay for us was just that.We stayed here out of need when visiting friends nearby and did not want to inconvenience them. It was relatively cheap and easy to get to.The room itself is your basic ESA room: double bed, TV, A/C, "kitchen", full size fridge, and your basic bathroom.The staff here was very professional and helpful when compared to other ESA that we have stayed at so kudos them :) Nothing in particular about the room impressed us about this location, it was what we expected except for a big no-no for me...pubic hairs on the toilet!I am writing this review on my desktop but pictures are on my phone, but I'll spare you all the pics, unless I'm asked by someone to upload them.To management: please have your cleaning staff pay attention to detail when cleaning the rooms. Hygiene is not a negotiable point for us no matter how little we pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r295376254-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>295376254</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>30 minutes away from Magic Mountain</t>
+  </si>
+  <si>
+    <t>Pet friendly - 2 Double Bed room with Full Kitchen was supposed to be a non-smoking room, but when we walked in, room smelled like cigarette smoke that's been lingering for awhile. After coming home, our suitcases, clothes,  etc. still smelled like cigarettes and we were only there for 2 nights! Staff was friendly and tried to correct the situation, but when the room smells like a chain smoker has been there for awhile, it's hard to remove the smell immediately.  They were all sold out and didn't have an alternate room to move to. State of room besides the smell was moderate since it looked partially renovated within the last few years (new paint and flooring) but lavatory sink was cracked, chairs and carpet were badly stained, bathroom exhaust fan sounds like it will break soon, and bathroom floor had a burnt hole in it.Free breakfast was grab and go,  but the 2 mornings we tried to get some, they ran out, and took a long time to restock.  They need to hire more staff to accommodate the replacement of food and beverages as well as check-in. Again, staff was doing their best. Free self parking and wifi. Wish we could've rated it better, but can't. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Pet friendly - 2 Double Bed room with Full Kitchen was supposed to be a non-smoking room, but when we walked in, room smelled like cigarette smoke that's been lingering for awhile. After coming home, our suitcases, clothes,  etc. still smelled like cigarettes and we were only there for 2 nights! Staff was friendly and tried to correct the situation, but when the room smells like a chain smoker has been there for awhile, it's hard to remove the smell immediately.  They were all sold out and didn't have an alternate room to move to. State of room besides the smell was moderate since it looked partially renovated within the last few years (new paint and flooring) but lavatory sink was cracked, chairs and carpet were badly stained, bathroom exhaust fan sounds like it will break soon, and bathroom floor had a burnt hole in it.Free breakfast was grab and go,  but the 2 mornings we tried to get some, they ran out, and took a long time to restock.  They need to hire more staff to accommodate the replacement of food and beverages as well as check-in. Again, staff was doing their best. Free self parking and wifi. Wish we could've rated it better, but can't. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r291605162-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>291605162</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Stayed here for a week and never regret. I made my booking online (priceline) and was offered a very reasonable rate. Spacious room, friendly staff and accessible to any point of my visit in Simi Valley. My only challenge was this hotel is pet friendly and sometimes dogs from the next door is bothering us. Otherwise, a perfect place if you plan an Extended Stay. We will surely stay in this place on our next visit to Simi Valley.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a week and never regret. I made my booking online (priceline) and was offered a very reasonable rate. Spacious room, friendly staff and accessible to any point of my visit in Simi Valley. My only challenge was this hotel is pet friendly and sometimes dogs from the next door is bothering us. Otherwise, a perfect place if you plan an Extended Stay. We will surely stay in this place on our next visit to Simi Valley.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r290279693-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>290279693</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Not for you if you like pleasant staff, clean sheets, towels, or if you like clean floors and furniture</t>
+  </si>
+  <si>
+    <t>If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"...If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"  I said to him, "Wait I don't want to bring it down there, can you tell me, what is the name of the WiFi"? Griffin  then shot off the abbreviation that they use. So I then asked, "Well am I going to need a password"? Griffin says "oh yeah the password is,..."and told me it. I know that doesn't sound so bad and it really isn't, but come on, if your going to help somebody give them the information they need. Obviously there's no caring about whether or not the guest is getting what they want, that was apparent from the "I can't be bothered with you" attitude. when I checked in, my room had one washcloth. There were four towels but only one washcloth.  Weird right? I called the  front desk because I wanted to have some ice. I asked where can I find some ice.  Griffin tells me that there are ice trays in the freezer. I replied, "I looked in the freezer and there were ice trays but they were turned upside down". Griffin with his snide attitude replies, "Turn the ice trays right side up and fill them with water". I said, "I know how to use ice trays. I want to have ice now" to get ice the way that he was suggesting would take hours. I asked, "Do you have any ice down there"? and he said no. I said it might be a good idea in the future if housekeeping would actually fill the ice trays so that when a guest needs ice the ice is in the form of ice not water. He said he would suggest that.I went down to the front desk and said may I please have a couple of washcloths. Griffin who is still behind the desk says to me we don't have any washcloths and then turns and walks away. I said hey wait a minute are you just going to tell me that you don't have any washcloths and not even let me know when I can possibly have another wash cloth? that's kind of lame. To Griffin's credit he agreed that that was kind of lame and said we are all booked up and we are out of washcloths and I won't be able to get you one until 7 in the morning. I then asked him again, are you sure you don't have any ice down here anywhere. and Griffin replied no we don't do you want to come look in what we have come to expect from Griffin in a very Snide way. "alright if you're offering then I'm going to look", I replied. When he revealed the refrigerator to me, that wasn't even a freezer, it was, well obvious that you can't have ice in there. I'm sorry I said,  its just I have never been in a hotel that doesn't offer ice. He said you can go to the corner gas station and get some ice. I said gosh even at Motel 6 they have ice I've never been at a hotel that doesn't have ice.  Griffin says to me well this is extended Stay America. &amp; I said thanks for the reminder I'll remember that the next time I'm deciding on where to stay and I'll choose Motel 6 over you. I left the hotel and was talking to my friend about how ridiculous the customer service is here and thought about how a rude desk clerk can just change your whole experience. I came in here feeling good about staying here and at this point I couldn't even think of staying another night and didn't want to. Unfortunately I had two nights paid in advance. Now I can see why they asked for the money in advance because they're afraid they're going to lose more customers like they probably have in the past. I said to my friend I'm going to post a bad review because I am NOT happy. I then said you know I'm going to call the manager and tell him what's going on it does not seem fair to just write a bad review. I called and Griffin answered ugh, I ask for the manager.Well the manager Jose, I believe his name was, was no better, in fact I could see just where Griffin got his attitude. When presented with the opportunity to make it right he had nothing to offer in fact after telling him exactly what I explained in this review,  and that I would rather not give a Bad review, he started with this sentence, and darnit I just do not understand why? He says, "you booked through hotels.com". why would he say that? I don't understand, I paid a hundred and twenty dollars a night for this glorified Motel 6 that can't even supply you with a washcloth or ice or clean floors, or clean furniture. And by the way, does not give you clean sheets every night nor did they come in and clean the room. What does it matter where I booked that makes no sense to me why he would lead with that. Then he went on to defend his snide employee Griffin even though I let him know I was giving him a chance to avoid the bad review. obviously they don't care so here it is for you to decide would you want to stay here. If you still say yes great, they can make money in spite of themselves. If you would like to have a good customer service and feel good about the hotel that you're staying in do not choose this hotel. The management is creating a culture of disdain for the customer the very people that they rely on to get their paychecks I feel very badly for this chain. Perhaps this is only in Simi Valley but I will never stay at another Extended Stay ever again. Maybe with the exception of, if all the other hotels are booked, and yes I'd rather even stay at a Motel six.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"...If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"  I said to him, "Wait I don't want to bring it down there, can you tell me, what is the name of the WiFi"? Griffin  then shot off the abbreviation that they use. So I then asked, "Well am I going to need a password"? Griffin says "oh yeah the password is,..."and told me it. I know that doesn't sound so bad and it really isn't, but come on, if your going to help somebody give them the information they need. Obviously there's no caring about whether or not the guest is getting what they want, that was apparent from the "I can't be bothered with you" attitude. when I checked in, my room had one washcloth. There were four towels but only one washcloth.  Weird right? I called the  front desk because I wanted to have some ice. I asked where can I find some ice.  Griffin tells me that there are ice trays in the freezer. I replied, "I looked in the freezer and there were ice trays but they were turned upside down". Griffin with his snide attitude replies, "Turn the ice trays right side up and fill them with water". I said, "I know how to use ice trays. I want to have ice now" to get ice the way that he was suggesting would take hours. I asked, "Do you have any ice down there"? and he said no. I said it might be a good idea in the future if housekeeping would actually fill the ice trays so that when a guest needs ice the ice is in the form of ice not water. He said he would suggest that.I went down to the front desk and said may I please have a couple of washcloths. Griffin who is still behind the desk says to me we don't have any washcloths and then turns and walks away. I said hey wait a minute are you just going to tell me that you don't have any washcloths and not even let me know when I can possibly have another wash cloth? that's kind of lame. To Griffin's credit he agreed that that was kind of lame and said we are all booked up and we are out of washcloths and I won't be able to get you one until 7 in the morning. I then asked him again, are you sure you don't have any ice down here anywhere. and Griffin replied no we don't do you want to come look in what we have come to expect from Griffin in a very Snide way. "alright if you're offering then I'm going to look", I replied. When he revealed the refrigerator to me, that wasn't even a freezer, it was, well obvious that you can't have ice in there. I'm sorry I said,  its just I have never been in a hotel that doesn't offer ice. He said you can go to the corner gas station and get some ice. I said gosh even at Motel 6 they have ice I've never been at a hotel that doesn't have ice.  Griffin says to me well this is extended Stay America. &amp; I said thanks for the reminder I'll remember that the next time I'm deciding on where to stay and I'll choose Motel 6 over you. I left the hotel and was talking to my friend about how ridiculous the customer service is here and thought about how a rude desk clerk can just change your whole experience. I came in here feeling good about staying here and at this point I couldn't even think of staying another night and didn't want to. Unfortunately I had two nights paid in advance. Now I can see why they asked for the money in advance because they're afraid they're going to lose more customers like they probably have in the past. I said to my friend I'm going to post a bad review because I am NOT happy. I then said you know I'm going to call the manager and tell him what's going on it does not seem fair to just write a bad review. I called and Griffin answered ugh, I ask for the manager.Well the manager Jose, I believe his name was, was no better, in fact I could see just where Griffin got his attitude. When presented with the opportunity to make it right he had nothing to offer in fact after telling him exactly what I explained in this review,  and that I would rather not give a Bad review, he started with this sentence, and darnit I just do not understand why? He says, "you booked through hotels.com". why would he say that? I don't understand, I paid a hundred and twenty dollars a night for this glorified Motel 6 that can't even supply you with a washcloth or ice or clean floors, or clean furniture. And by the way, does not give you clean sheets every night nor did they come in and clean the room. What does it matter where I booked that makes no sense to me why he would lead with that. Then he went on to defend his snide employee Griffin even though I let him know I was giving him a chance to avoid the bad review. obviously they don't care so here it is for you to decide would you want to stay here. If you still say yes great, they can make money in spite of themselves. If you would like to have a good customer service and feel good about the hotel that you're staying in do not choose this hotel. The management is creating a culture of disdain for the customer the very people that they rely on to get their paychecks I feel very badly for this chain. Perhaps this is only in Simi Valley but I will never stay at another Extended Stay ever again. Maybe with the exception of, if all the other hotels are booked, and yes I'd rather even stay at a Motel six.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r280251125-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>280251125</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfy Bed </t>
+  </si>
+  <si>
+    <t>We spent two nights here and were put in a handicap accessible room as that was what was available. Queen size bed was comfy but pillows were small and flatter than what I like. Had a nice laundry room which was the main reason for stay here and it was reasonably priced. TV was the smallest I've seen. Breakfast was chintzy, staff called it "grab &amp; go". Coffee, granola bars oatmeal in a cup, no place to sit and nothing really for kids. No restaurants in walking distance but there is a Domino's Pizza that's nearby. Request a room away from the freeway entrance as the traffic is noisy. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>We spent two nights here and were put in a handicap accessible room as that was what was available. Queen size bed was comfy but pillows were small and flatter than what I like. Had a nice laundry room which was the main reason for stay here and it was reasonably priced. TV was the smallest I've seen. Breakfast was chintzy, staff called it "grab &amp; go". Coffee, granola bars oatmeal in a cup, no place to sit and nothing really for kids. No restaurants in walking distance but there is a Domino's Pizza that's nearby. Request a room away from the freeway entrance as the traffic is noisy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r269605442-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>269605442</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Beds</t>
+  </si>
+  <si>
+    <t>I had book a smoking room with two beds a month in advance and two days before check in they called and said that the room was not available but they would give us two rooms for the price of one.  I was not happy but fine until I entered one of the rooms and it smelled like something had died in it.  I asked for another room which was better but needs maintenance the window lock did not work and the shower pull up was rusted and hard to get all the way up, the bed was comfortable.   When I asked what happened with the room with two beds I was told they had to remove the mattress from one of the beds, so in two days they could not get the mattress replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>I had book a smoking room with two beds a month in advance and two days before check in they called and said that the room was not available but they would give us two rooms for the price of one.  I was not happy but fine until I entered one of the rooms and it smelled like something had died in it.  I asked for another room which was better but needs maintenance the window lock did not work and the shower pull up was rusted and hard to get all the way up, the bed was comfortable.   When I asked what happened with the room with two beds I was told they had to remove the mattress from one of the beds, so in two days they could not get the mattress replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r252973840-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>252973840</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Turned my bad day around</t>
+  </si>
+  <si>
+    <t>Was having a horrible day, traveling with an extremely tired 2 year old &amp; Kristen at the front desk really helped turned it around.  She was professional, friendly, helpful &amp; accommodating &amp; after the day I had, it was appreciated more than she'll ever know.  I would stay here again in a heartbeat &amp; would definitely recommend it to anyone in need of a temporary place to call home.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Was having a horrible day, traveling with an extremely tired 2 year old &amp; Kristen at the front desk really helped turned it around.  She was professional, friendly, helpful &amp; accommodating &amp; after the day I had, it was appreciated more than she'll ever know.  I would stay here again in a heartbeat &amp; would definitely recommend it to anyone in need of a temporary place to call home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r242920695-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>242920695</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent Property - A Home Away From Home</t>
+  </si>
+  <si>
+    <t>This was our second stay at this specific property in Simi Valley.  It is conveniently located near freeway entrances, shopping and the Reagan Presidential Library.The property is well maintained and very clean.  The staff is very helpful and friendly. If you are able to find coupons or special deals, the rates are reasonable.Although, the hotel and grounds were clean, there was a lingering smell of cigarette smoke throughout the hallway on the third floor where our room was located.  Even though, we were in a non-smoking room, when we walked out into the hallway, the cigarette smell was strong.  When I mentioned this to Jesus, at the front desk, he was apologetic and said that the smoking rooms were down the hallway but that the indoor smoking policy is something that the management is reviewing and that it may be restricted in the future.  I certainly hope so since it is very unpleasant and the second hand smoke may even be harmful to those who have health issues such as COPD.Overall, I would still give this hotel an excellent rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>This was our second stay at this specific property in Simi Valley.  It is conveniently located near freeway entrances, shopping and the Reagan Presidential Library.The property is well maintained and very clean.  The staff is very helpful and friendly. If you are able to find coupons or special deals, the rates are reasonable.Although, the hotel and grounds were clean, there was a lingering smell of cigarette smoke throughout the hallway on the third floor where our room was located.  Even though, we were in a non-smoking room, when we walked out into the hallway, the cigarette smell was strong.  When I mentioned this to Jesus, at the front desk, he was apologetic and said that the smoking rooms were down the hallway but that the indoor smoking policy is something that the management is reviewing and that it may be restricted in the future.  I certainly hope so since it is very unpleasant and the second hand smoke may even be harmful to those who have health issues such as COPD.Overall, I would still give this hotel an excellent rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r239974910-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>239974910</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Great Value - but disorganised</t>
+  </si>
+  <si>
+    <t>We turned up and they had lost our booking. thankfully I had a copy of it with me and they soon got us in a room. It is basic, but has a kitchen and reasonable beds. The furniture is plain, but the rooms are clean. Breakfast is non existent - subway around the corner. there are some permanent residents there by the looks. but its is an ok place to crash. NO night life whatsoever. so plan to have a car while you are there as you cant walk to things.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>We turned up and they had lost our booking. thankfully I had a copy of it with me and they soon got us in a room. It is basic, but has a kitchen and reasonable beds. The furniture is plain, but the rooms are clean. Breakfast is non existent - subway around the corner. there are some permanent residents there by the looks. but its is an ok place to crash. NO night life whatsoever. so plan to have a car while you are there as you cant walk to things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r239851849-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>239851849</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Great staff, two inches of dust, smelled like sweat</t>
+  </si>
+  <si>
+    <t>GREAT staff, but poorly maintained room.  Smelled like sweaty man, there was a thick layer of dust on every surface in the room, so I don't know if this room isn't used much, but I asked the front desk for cleaning supplies.  They offered to have the housekeeper come in, but it seemed easier to just do it myself so I knew it would get done.  Bed was terrible and pillows smelled like rotten, sweaty down feathers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>GREAT staff, but poorly maintained room.  Smelled like sweaty man, there was a thick layer of dust on every surface in the room, so I don't know if this room isn't used much, but I asked the front desk for cleaning supplies.  They offered to have the housekeeper come in, but it seemed easier to just do it myself so I knew it would get done.  Bed was terrible and pillows smelled like rotten, sweaty down feathers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r192602413-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>192602413</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Ten days on business.</t>
+  </si>
+  <si>
+    <t>Tonight being my last night of a ten night stay, I'd like to give an honest review of my time here.
+My coworkers and I had several issues with this hotel from the beginning of our stay. 
+First our rooms were not ready for us to check into when we arrived; we had to wait for about an hour in the parking lot while staff got our rooms together. 
+Secondly our rooms were not cleaned properly, a coworkers bathtub and my tub as well had "body hair" located in the drains and on the shower curtains. 
+The internet service they have set up is HORRIBLE! I had to contact customer service more than ten times with in the first 3 days of my stay because my devices would not link to the internet or the signals would fail. Doing most of my business through emails and online accounts, this is something you don't want to experience in 2014.
+Than my room phone wouldn't work so I could not call customer service, but to staffs regard they did fix my phone issue, it only took three employees and two hours to fix it,... but hey who needs phones or the internet when you travel for work these days!?!  
+The hotel also apparently has LONG TERM residents living here. These people have dogs which they walk around the surrounding hotel area so they can use the bathroom.
+BEWARE any green space with...Tonight being my last night of a ten night stay, I'd like to give an honest review of my time here. My coworkers and I had several issues with this hotel from the beginning of our stay. First our rooms were not ready for us to check into when we arrived; we had to wait for about an hour in the parking lot while staff got our rooms together. Secondly our rooms were not cleaned properly, a coworkers bathtub and my tub as well had "body hair" located in the drains and on the shower curtains. The internet service they have set up is HORRIBLE! I had to contact customer service more than ten times with in the first 3 days of my stay because my devices would not link to the internet or the signals would fail. Doing most of my business through emails and online accounts, this is something you don't want to experience in 2014.Than my room phone wouldn't work so I could not call customer service, but to staffs regard they did fix my phone issue, it only took three employees and two hours to fix it,... but hey who needs phones or the internet when you travel for work these days!?!  The hotel also apparently has LONG TERM residents living here. These people have dogs which they walk around the surrounding hotel area so they can use the bathroom.BEWARE any green space with grass has dog poop EVERYWHERE.I was lucky and got a third floor room, my coworkers were not so lucky. All three of them reported they heard people fighting in hallways, making loud noises above them walking heavy, using personal vacuum cleaner at 6am, smoking in the hallways  etc etc......As for the staff, they have been kind and helpful as best as they can, but its been obvious to me and the others that this place is poorly managed and probably understaffed as well. Personally I wouldn't stay here if it wasn't for business or a few days stay. I'd like to include its been nice and quiet in my room and besides the technical issues and the apparent long term residents messing up the place, my stay has been decently average.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Tonight being my last night of a ten night stay, I'd like to give an honest review of my time here.
+My coworkers and I had several issues with this hotel from the beginning of our stay. 
+First our rooms were not ready for us to check into when we arrived; we had to wait for about an hour in the parking lot while staff got our rooms together. 
+Secondly our rooms were not cleaned properly, a coworkers bathtub and my tub as well had "body hair" located in the drains and on the shower curtains. 
+The internet service they have set up is HORRIBLE! I had to contact customer service more than ten times with in the first 3 days of my stay because my devices would not link to the internet or the signals would fail. Doing most of my business through emails and online accounts, this is something you don't want to experience in 2014.
+Than my room phone wouldn't work so I could not call customer service, but to staffs regard they did fix my phone issue, it only took three employees and two hours to fix it,... but hey who needs phones or the internet when you travel for work these days!?!  
+The hotel also apparently has LONG TERM residents living here. These people have dogs which they walk around the surrounding hotel area so they can use the bathroom.
+BEWARE any green space with...Tonight being my last night of a ten night stay, I'd like to give an honest review of my time here. My coworkers and I had several issues with this hotel from the beginning of our stay. First our rooms were not ready for us to check into when we arrived; we had to wait for about an hour in the parking lot while staff got our rooms together. Secondly our rooms were not cleaned properly, a coworkers bathtub and my tub as well had "body hair" located in the drains and on the shower curtains. The internet service they have set up is HORRIBLE! I had to contact customer service more than ten times with in the first 3 days of my stay because my devices would not link to the internet or the signals would fail. Doing most of my business through emails and online accounts, this is something you don't want to experience in 2014.Than my room phone wouldn't work so I could not call customer service, but to staffs regard they did fix my phone issue, it only took three employees and two hours to fix it,... but hey who needs phones or the internet when you travel for work these days!?!  The hotel also apparently has LONG TERM residents living here. These people have dogs which they walk around the surrounding hotel area so they can use the bathroom.BEWARE any green space with grass has dog poop EVERYWHERE.I was lucky and got a third floor room, my coworkers were not so lucky. All three of them reported they heard people fighting in hallways, making loud noises above them walking heavy, using personal vacuum cleaner at 6am, smoking in the hallways  etc etc......As for the staff, they have been kind and helpful as best as they can, but its been obvious to me and the others that this place is poorly managed and probably understaffed as well. Personally I wouldn't stay here if it wasn't for business or a few days stay. I'd like to include its been nice and quiet in my room and besides the technical issues and the apparent long term residents messing up the place, my stay has been decently average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r192186105-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>192186105</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Two week stay-visiting family</t>
+  </si>
+  <si>
+    <t>Really good accommodation with a kitchen which we used.Great staff especially the manager.Great value especially on the weekly rate which is much cheaper than you get  by booking on hotel checking websites..SO BOOK DIRECT.Slight downsides...it is near the freeway but so is all of Simi.It's not luxurious but it is good value and the mid- section on the top floor allows smoking which you can't escape in the corridors or lift lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Really good accommodation with a kitchen which we used.Great staff especially the manager.Great value especially on the weekly rate which is much cheaper than you get  by booking on hotel checking websites..SO BOOK DIRECT.Slight downsides...it is near the freeway but so is all of Simi.It's not luxurious but it is good value and the mid- section on the top floor allows smoking which you can't escape in the corridors or lift lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r189172954-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>189172954</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel !!</t>
+  </si>
+  <si>
+    <t>A very comfortable Extended Stay America hotel, Staff is very friendly and makes you feel at home. The rooms are clean and up to 2 people can have a nice stay,I am regularly stay in this Hotels.The staff are always friendly and remember us when I am return. clean and the service is excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r185358205-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>185358205</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>I love the kitchen makes things so much easier. Pet friendly too all breeds!!! The rooms are nice and love the remodel. Any issue the staff will be very helpful!!!! I wish there was a pool!Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>I love the kitchen makes things so much easier. Pet friendly too all breeds!!! The rooms are nice and love the remodel. Any issue the staff will be very helpful!!!! I wish there was a pool!Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r184320974-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>184320974</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>The Best Extended Stay America</t>
+  </si>
+  <si>
+    <t>I have stayed at other Extend Stay America hotels before and knew what to expect.  They are all pretty much the same.  The difference is this one in Simi Valley is very clean, well decorated, has a LCD TV with 2 Showtime channels, and a very accommodating and cheerful staff.  Here is what I got:
+Non-smoking room (although cigarette smoke does permeate the hallways).
+Air conditioner is quiet and efficient.
+Clean carpeting and floor (my socks didn't turn black from walking on the floor)
+Very comfortable pillows and bed
+Full size refrigerator that is super cold, got ice in a couple of hours.
+Plenty of bath towels (4 to be exact)
+Grab-and-go breakfast from 8am to 930am include fresh, juicy, crispy apples, oranges, Quaker Oats bars, Quaker Oats instant oatmeal packs, and small individually packaged muffins
+When I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were...I have stayed at other Extend Stay America hotels before and knew what to expect.  They are all pretty much the same.  The difference is this one in Simi Valley is very clean, well decorated, has a LCD TV with 2 Showtime channels, and a very accommodating and cheerful staff.  Here is what I got:Non-smoking room (although cigarette smoke does permeate the hallways).Air conditioner is quiet and efficient.Clean carpeting and floor (my socks didn't turn black from walking on the floor)Very comfortable pillows and bedFull size refrigerator that is super cold, got ice in a couple of hours.Plenty of bath towels (4 to be exact)Grab-and-go breakfast from 8am to 930am include fresh, juicy, crispy apples, oranges, Quaker Oats bars, Quaker Oats instant oatmeal packs, and small individually packaged muffinsWhen I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were any other problems.  She followed me to the room and when I looked inside, it had everything I expected from Extended Stay, except this room was much nicer and cleaner.  Before leaving, she said to call her if I needed anything and that she was working until 1100pm.  When I found out breakfast ends at 930am and I wasn't planning on getting up until 945am, I contacted her and she permitted to get my breakfast now.  I went back to my room with my goodies and decided to try the apple.  It was super crispy unlike the mushy apples at most hotels.  Hey, the muffin was really good, so was the other muffin.  Oh well, I did save the oatmeal and bars for breakfast. The next morning, I mentioned to the day clerk that the internet did not work, although the laptop connected, a secondary firewall block the access.  The clerk and the manager were very friendly and apologized. The manager immediately called the tech people to address the issue, but I had to leave.  A wonderful experience, the staff and the hotel here knows how to do things right. I will stay here again in the future.This is a great place to stay if you're going to the Reagan Library or watch the Civil War reenactments in Moorpark.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at other Extend Stay America hotels before and knew what to expect.  They are all pretty much the same.  The difference is this one in Simi Valley is very clean, well decorated, has a LCD TV with 2 Showtime channels, and a very accommodating and cheerful staff.  Here is what I got:
+Non-smoking room (although cigarette smoke does permeate the hallways).
+Air conditioner is quiet and efficient.
+Clean carpeting and floor (my socks didn't turn black from walking on the floor)
+Very comfortable pillows and bed
+Full size refrigerator that is super cold, got ice in a couple of hours.
+Plenty of bath towels (4 to be exact)
+Grab-and-go breakfast from 8am to 930am include fresh, juicy, crispy apples, oranges, Quaker Oats bars, Quaker Oats instant oatmeal packs, and small individually packaged muffins
+When I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were...I have stayed at other Extend Stay America hotels before and knew what to expect.  They are all pretty much the same.  The difference is this one in Simi Valley is very clean, well decorated, has a LCD TV with 2 Showtime channels, and a very accommodating and cheerful staff.  Here is what I got:Non-smoking room (although cigarette smoke does permeate the hallways).Air conditioner is quiet and efficient.Clean carpeting and floor (my socks didn't turn black from walking on the floor)Very comfortable pillows and bedFull size refrigerator that is super cold, got ice in a couple of hours.Plenty of bath towels (4 to be exact)Grab-and-go breakfast from 8am to 930am include fresh, juicy, crispy apples, oranges, Quaker Oats bars, Quaker Oats instant oatmeal packs, and small individually packaged muffinsWhen I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were any other problems.  She followed me to the room and when I looked inside, it had everything I expected from Extended Stay, except this room was much nicer and cleaner.  Before leaving, she said to call her if I needed anything and that she was working until 1100pm.  When I found out breakfast ends at 930am and I wasn't planning on getting up until 945am, I contacted her and she permitted to get my breakfast now.  I went back to my room with my goodies and decided to try the apple.  It was super crispy unlike the mushy apples at most hotels.  Hey, the muffin was really good, so was the other muffin.  Oh well, I did save the oatmeal and bars for breakfast. The next morning, I mentioned to the day clerk that the internet did not work, although the laptop connected, a secondary firewall block the access.  The clerk and the manager were very friendly and apologized. The manager immediately called the tech people to address the issue, but I had to leave.  A wonderful experience, the staff and the hotel here knows how to do things right. I will stay here again in the future.This is a great place to stay if you're going to the Reagan Library or watch the Civil War reenactments in Moorpark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r181596532-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>181596532</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>clean and comfortable Responsive Staff</t>
+  </si>
+  <si>
+    <t>The hotel is a very good value in the area and provide cleana  and comfortable room at a fair price. This is more geared to long term stays The grab and go breakfast is functional What makes the Extended Stay the a good value is not just the price but the staff that works there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is a very good value in the area and provide cleana  and comfortable room at a fair price. This is more geared to long term stays The grab and go breakfast is functional What makes the Extended Stay the a good value is not just the price but the staff that works there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r171469964-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>171469964</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Toilet malfunction</t>
+  </si>
+  <si>
+    <t>The check-in time is ate 3pm and the soonest we could chi in was 2pm.  The toilet backed in the middle of the night ad they handed us a plunger because there's no maintenance staff after hours.  It was disturbing and GROSS!  We didn't know whose poop we were cleaning up.  We traveled with kids and this was disastrous.  The next morning there was no apology, no management phone call asking us if we're okay.  Terrible management protocol.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r170491912-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>170491912</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>First Time - Good Stay</t>
+  </si>
+  <si>
+    <t>Stayed at this property in June.  Bed was comfortable, room was spacious and did enjoy the kitchen.  Eventhough we never cooked in the room, it was nice having the fridge and microwave. Do make sure to get a 1st or 2nd floor because the third is for smokers and believe me, you can smell he smoke when exiting the elevator on the 3rd floor.  The "Breakfast on the Go" was not good.  Always the same muffins, Oatmeal to Go bars and coffee and juice.  We went out most of the time for breakfast.  Staff was friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this property in June.  Bed was comfortable, room was spacious and did enjoy the kitchen.  Eventhough we never cooked in the room, it was nice having the fridge and microwave. Do make sure to get a 1st or 2nd floor because the third is for smokers and believe me, you can smell he smoke when exiting the elevator on the 3rd floor.  The "Breakfast on the Go" was not good.  Always the same muffins, Oatmeal to Go bars and coffee and juice.  We went out most of the time for breakfast.  Staff was friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r170359949-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>170359949</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Third Stay, Still Great</t>
+  </si>
+  <si>
+    <t>This is my third stay at this hotel. Really enjoy the full kitchen. I work late when on the road and it's really great to not have to go out for a midnight snack or hit a vending machine. I can fill my fridge and hit it any time I'm in my room. It's great. Beds are comfortable and everything is really clean. Front Desk personnel are always very welcoming. Great hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r166180345-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>166180345</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>There were some negative reviews here, but most of those referred to the state of repair of the hotel. Once I saw it had been recently renovated, I decided to take a chance. It was great. My husband and I stayed a week with our 3-yr old son.  My only concern was the lack of kid-safe areas right around the hotel, but we found a park not too far away. The room was clean, everything worked, and the beds were comfy. There were only 2 sets of dishes but the front desk gave us everything we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>There were some negative reviews here, but most of those referred to the state of repair of the hotel. Once I saw it had been recently renovated, I decided to take a chance. It was great. My husband and I stayed a week with our 3-yr old son.  My only concern was the lack of kid-safe areas right around the hotel, but we found a park not too far away. The room was clean, everything worked, and the beds were comfy. There were only 2 sets of dishes but the front desk gave us everything we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r166116361-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>166116361</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Best in Simi Valley</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. They were quick to answer questions and always had a smile! Very clean guest rooms. The full kitchen is great and very well kept. This was our first experience with an Extended Stay hotel and I would definitely recommend it. I really enjoyed being able to have home made healthy food instead of restaurant food during our stay. Try it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. They were quick to answer questions and always had a smile! Very clean guest rooms. The full kitchen is great and very well kept. This was our first experience with an Extended Stay hotel and I would definitely recommend it. I really enjoyed being able to have home made healthy food instead of restaurant food during our stay. Try it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r164661858-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>164661858</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Still friendly, efficient and full of smiles.</t>
+  </si>
+  <si>
+    <t>I returned here for a stay with my retired mom and a friend for a one night getaway while traveling and I was still impressed with the service, facilities and smiles - almost a year later. They truly care about their guests and do all they can to make sure everyone is welcome and feels like family. I hope one day to actually spend more than one night at this property to fully realize the "home" experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r160843983-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>160843983</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Needs to be cleaned</t>
+  </si>
+  <si>
+    <t>The hotel is comfortable and has everything one needs in order to function while away from home. The free Wi-Fi is great as well. The staff is friendly and helpful, and for the most part, our stay was pleasant.My only complaint with this property is the stench of smoke that exists in the hallway of at least the third floor. I don't know why a non-smoking hotel would reek as this one does, but a thorough cleaning and deodorizing is long overdue. I'm a non-smoker and was traveling with small children who continually complained about the smell. The odor was so strong that my asthma and allergies went crazy every time I stepped out of the stairwell.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is comfortable and has everything one needs in order to function while away from home. The free Wi-Fi is great as well. The staff is friendly and helpful, and for the most part, our stay was pleasant.My only complaint with this property is the stench of smoke that exists in the hallway of at least the third floor. I don't know why a non-smoking hotel would reek as this one does, but a thorough cleaning and deodorizing is long overdue. I'm a non-smoker and was traveling with small children who continually complained about the smell. The odor was so strong that my asthma and allergies went crazy every time I stepped out of the stairwell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r160574053-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>160574053</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>I just wanted to comment on the redecorating job, love it! The staff there is so good, very helpful, just a cool place to spend your time when you're away from home because it feels so much like home. Good job Verica Weikal, Christine, and Norman MoreShow less</t>
+  </si>
+  <si>
+    <t>I just wanted to comment on the redecorating job, love it! The staff there is so good, very helpful, just a cool place to spend your time when you're away from home because it feels so much like home. Good job Verica Weikal, Christine, and Norman More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r160001951-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>160001951</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>Lovely building, rooms and amenities.  Excellent staff.  Grab and go breakfast left something to be desired but was adequate.  Very quiet and comfortable.  Also very close to the freeway and other businesses.  I was uncomfy in the bed during the night but I think that was from my days experience, the bed seemed comfortable enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Lovely building, rooms and amenities.  Excellent staff.  Grab and go breakfast left something to be desired but was adequate.  Very quiet and comfortable.  Also very close to the freeway and other businesses.  I was uncomfy in the bed during the night but I think that was from my days experience, the bed seemed comfortable enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r156210189-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>156210189</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>ESA in Simi is a pleasant stay for me. I was on a business project proposal stayed there for 2 months and I never ever thought out of place.Friendly staff, lovely environment, limited but very good facilities which made me assure the value for money that I was getting out of it.Just newly painted on the exterior this hotel is no different than any other High rated places to stay in America.Loved it !MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>ESA in Simi is a pleasant stay for me. I was on a business project proposal stayed there for 2 months and I never ever thought out of place.Friendly staff, lovely environment, limited but very good facilities which made me assure the value for money that I was getting out of it.Just newly painted on the exterior this hotel is no different than any other High rated places to stay in America.Loved it !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r154091181-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>154091181</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Fantastic Visit, Great Staff</t>
+  </si>
+  <si>
+    <t>This is a transformed hotel and what a job they did! It used to be a shabby little place for the local homeless to stay. I heard it had been updated and since I enjoy the brand I decided to give it a try. Wow, I was completely thrilled. The staff is so caring and efficient. They were very welcoming and I felt like they really did care about how my visit was!  The rooms and common areas are immaculate. Great job to all!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded March 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2013</t>
+  </si>
+  <si>
+    <t>This is a transformed hotel and what a job they did! It used to be a shabby little place for the local homeless to stay. I heard it had been updated and since I enjoy the brand I decided to give it a try. Wow, I was completely thrilled. The staff is so caring and efficient. They were very welcoming and I felt like they really did care about how my visit was!  The rooms and common areas are immaculate. Great job to all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r153112976-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>153112976</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Clean rooms and great staff</t>
+  </si>
+  <si>
+    <t>I was at Extended Stay America – Simi Valley, because my house in Wood Ranch was having repair work done.  I was very pleased with everything I encountered at this hotel. It looks inviting on the outside, clean grounds and well cared for.  A very friendly staff checked me in, and my room was very clean, fresh smelling and modern in decor. Somebody has obviously put thought into this layout and I had everything I needed.  I felt safe for myself and also parking my car. There are laundry machines on site, soda vending, and a quick and easy breakfast, selection of coffee flavors, assorted delicious muffins, granola bars, oatmeal and scrumptious fresh red apples and oranges.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was at Extended Stay America – Simi Valley, because my house in Wood Ranch was having repair work done.  I was very pleased with everything I encountered at this hotel. It looks inviting on the outside, clean grounds and well cared for.  A very friendly staff checked me in, and my room was very clean, fresh smelling and modern in decor. Somebody has obviously put thought into this layout and I had everything I needed.  I felt safe for myself and also parking my car. There are laundry machines on site, soda vending, and a quick and easy breakfast, selection of coffee flavors, assorted delicious muffins, granola bars, oatmeal and scrumptious fresh red apples and oranges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r150837626-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>150837626</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Best Joint in Town</t>
+  </si>
+  <si>
+    <t>We have stayed at other Simi Valley hotels and this is the top notch. They are professional, friendly and very helpful. Our room had no issues unlike some of the other locations we have stayed in Simi. Their location is somewhat out of the way, on the east side of Simi, but even traveling alone one would feel safe, also something we cannot say for the other locations in the area. The Grab and Go breakfast is superb unless you prefer the powdered eggs served at the Holiday Inn, or the runny plated Yogurt at the Grand Vista. All sarcasm aside we have to say that we fully enjoyed our visit at this location. We will definitely be back at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at other Simi Valley hotels and this is the top notch. They are professional, friendly and very helpful. Our room had no issues unlike some of the other locations we have stayed in Simi. Their location is somewhat out of the way, on the east side of Simi, but even traveling alone one would feel safe, also something we cannot say for the other locations in the area. The Grab and Go breakfast is superb unless you prefer the powdered eggs served at the Holiday Inn, or the runny plated Yogurt at the Grand Vista. All sarcasm aside we have to say that we fully enjoyed our visit at this location. We will definitely be back at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r149734379-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>149734379</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Great Rooms, Horrible Service</t>
+  </si>
+  <si>
+    <t>Extended Stay has great rooms for an even better price. But I would not recommend this hotel for groups. I reserved a good amount of rooms for out of town guests that were attending my brother's wedding. Communication with the manager was near impossible but once I finally got the reservation set up and the guests started calling to book rooms, they mentioned the bride and grooms names to get the discounted rate and no one ever knew what they were talking about. The groom still stayed at this hotel, but no guests did due to difficulty with the reservation. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Extended Stay has great rooms for an even better price. But I would not recommend this hotel for groups. I reserved a good amount of rooms for out of town guests that were attending my brother's wedding. Communication with the manager was near impossible but once I finally got the reservation set up and the guests started calling to book rooms, they mentioned the bride and grooms names to get the discounted rate and no one ever knew what they were talking about. The groom still stayed at this hotel, but no guests did due to difficulty with the reservation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r149092301-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>149092301</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>A Pleasant Stay</t>
+  </si>
+  <si>
+    <t>This hotel has been recently renovated so some of the earlier reviews may no longer apply.  The rooms are immaculate, with ample amenities such as kitchen utensils, a microwave and electric stove, coffee maker, etc.  The staff are very friendly and helpful, especially Christine who replaced the broken refrigerator in the middle of the night when I discovered it wasn't working.  Best of all, the room rates are nearly the cheapest in Simi Valley even for visitors who aren't staying longer than a week.  I would definitely recommend this hotel to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has been recently renovated so some of the earlier reviews may no longer apply.  The rooms are immaculate, with ample amenities such as kitchen utensils, a microwave and electric stove, coffee maker, etc.  The staff are very friendly and helpful, especially Christine who replaced the broken refrigerator in the middle of the night when I discovered it wasn't working.  Best of all, the room rates are nearly the cheapest in Simi Valley even for visitors who aren't staying longer than a week.  I would definitely recommend this hotel to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r147681994-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>147681994</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Hotel smells bad</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel and it will be our last.  The hallway outside our room smelled bad.  Our room looked like the floor had not been vacuumed and there was a foul smell in the kitchen.  When I went to take a bath, there was caked on soap on the side of the bathtub with someone else's public hair in it (GROSS!!).MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded December 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2012</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel and it will be our last.  The hallway outside our room smelled bad.  Our room looked like the floor had not been vacuumed and there was a foul smell in the kitchen.  When I went to take a bath, there was caked on soap on the side of the bathtub with someone else's public hair in it (GROSS!!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r146927326-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>146927326</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>"A Place Like Home"</t>
+  </si>
+  <si>
+    <t>Very friendly staff! They will accomodate most situations and allow check-in time to fit your circumstances. Ive stayed at this hotel numerous of times this past year alone for business related purposes and I will recommend this hotel to anyone looking for temporary/short-term lodging. I felt at home each and every time I have visited with the amenites they have to offer and friendly employees. I am amazed at the customer service at the front desk-Carla, Verica (Mgr), Ashe, and Norman are outstandingly great to all the residents and very approachable in manner!!!! They are my favorite!! Unfortunately, the housekeeping staff are not bilingual however if there was anything I needed they would try their best to assist me or direct me in the right direction for further assistance. Maintenance are VERY prompt at responding to calls and services I have never waited more than 30 minutes for a non urgent call. Lastly, I felt secure! There are a FEW places in Los Angeles that I have felt comfortable, at ease, peaceful, and relaxing--this place of residence Ive have to say is would be number one at fufilling my needs. If you need a place to visit while you are in town, go there...YOU WILL FEEL LIKE HOME!MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Very friendly staff! They will accomodate most situations and allow check-in time to fit your circumstances. Ive stayed at this hotel numerous of times this past year alone for business related purposes and I will recommend this hotel to anyone looking for temporary/short-term lodging. I felt at home each and every time I have visited with the amenites they have to offer and friendly employees. I am amazed at the customer service at the front desk-Carla, Verica (Mgr), Ashe, and Norman are outstandingly great to all the residents and very approachable in manner!!!! They are my favorite!! Unfortunately, the housekeeping staff are not bilingual however if there was anything I needed they would try their best to assist me or direct me in the right direction for further assistance. Maintenance are VERY prompt at responding to calls and services I have never waited more than 30 minutes for a non urgent call. Lastly, I felt secure! There are a FEW places in Los Angeles that I have felt comfortable, at ease, peaceful, and relaxing--this place of residence Ive have to say is would be number one at fufilling my needs. If you need a place to visit while you are in town, go there...YOU WILL FEEL LIKE HOME!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r146086018-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>146086018</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Very Surprised!!!</t>
+  </si>
+  <si>
+    <t>I've never stayed at an Extended Stay hotel and wasn't sure what to expect. The front desk staff makes this hotel!!! Great people from check in to check out. My room was spotless, quiet and very nice. It's location is extremely convenient. It's right by a few places to eat and freeway access is right there. Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>I've never stayed at an Extended Stay hotel and wasn't sure what to expect. The front desk staff makes this hotel!!! Great people from check in to check out. My room was spotless, quiet and very nice. It's location is extremely convenient. It's right by a few places to eat and freeway access is right there. Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r142108502-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>142108502</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Lovely Art work!</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel with Art work on the walls! We were in the area to visit the Ronald Reagan Library. It is a beautiful property with wonderful staff members. This hotel is on the east side of Simi but easy access to 118 and just 10 minutes drive to the Ronald Reagan Library.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel with Art work on the walls! We were in the area to visit the Ronald Reagan Library. It is a beautiful property with wonderful staff members. This hotel is on the east side of Simi but easy access to 118 and just 10 minutes drive to the Ronald Reagan Library.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r141852285-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>141852285</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent staff (Norman)</t>
+  </si>
+  <si>
+    <t>The most important thing to say is that I left my Nikon camera batter/charger/cord in the room, and did not realize it until I was 400 miles away. I phoned the Hotel, and NORMAN assisted me IMMEDIATELY by going up to the room I had checked out of and locating the valuable items I had left behind. He took the time and trouble to write down my son's name who would be coming to pick up my things. He then set aside my items and ensured that they were returned to my son.THANK YOU, NORMAN!!The hotel itself was MUCH nicer than the other EMA's I have stayed in. It was clean, quiet and well=appointed. They even had fresh apples at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2012</t>
+  </si>
+  <si>
+    <t>The most important thing to say is that I left my Nikon camera batter/charger/cord in the room, and did not realize it until I was 400 miles away. I phoned the Hotel, and NORMAN assisted me IMMEDIATELY by going up to the room I had checked out of and locating the valuable items I had left behind. He took the time and trouble to write down my son's name who would be coming to pick up my things. He then set aside my items and ensured that they were returned to my son.THANK YOU, NORMAN!!The hotel itself was MUCH nicer than the other EMA's I have stayed in. It was clean, quiet and well=appointed. They even had fresh apples at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r141794124-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>141794124</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Lovely rooms</t>
+  </si>
+  <si>
+    <t>Lovely stay here. Friendly staff, nice big clean room. Great shower. Is a bit in the middle of no where but we found places to eat around there. Only downside i would say is its not the quietest of hotels, its quite near a highway and the A/C is quite noisy as well. But despite that overall I Would definately use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Lovely stay here. Friendly staff, nice big clean room. Great shower. Is a bit in the middle of no where but we found places to eat around there. Only downside i would say is its not the quietest of hotels, its quite near a highway and the A/C is quite noisy as well. But despite that overall I Would definately use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r140345259-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>140345259</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Hello my name is Carla i just want to how peacefull this place is.If i had a choice of any hotel this is the one i would pick ,all the employes are very nice. I have several friends that stay here and they all have nothing bad to say about it.My brother and i have beeen here sence sep.8,2012 and plan to be here for another week nobody bothers us and that's what we like.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded September 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2012</t>
+  </si>
+  <si>
+    <t>Hello my name is Carla i just want to how peacefull this place is.If i had a choice of any hotel this is the one i would pick ,all the employes are very nice. I have several friends that stay here and they all have nothing bad to say about it.My brother and i have beeen here sence sep.8,2012 and plan to be here for another week nobody bothers us and that's what we like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r136837043-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>136837043</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>i'll come back again.</t>
+  </si>
+  <si>
+    <t>I always wanted to try Extended Stay America, so I did this time when my boyfriend came to visit me. The location is really convenient, right off at freeway exist. (the noise level is minimum, no freeway traffic noise when you are in the room) The service was great. they always seem a little busy but every staff is always so helpful. special thanks to Kristin. she helped us alot. The room is clean and no weird smell. I was worry the room would smell all nasty and oily because they have a mini kitchen in the room, fortunately, it doesnt. The bathroom is big. big space between mirror and toilet and shower area. :) The bed is comfortable. (I wish the blanket could be a little bit thicker... not sure it is cuz its summer season, so they switch to a thinner blanket or something..) 1 dining table and 1 office table and 1 chair each for each table. plenty office space. I wouldnt come back here for the regular room price, I got this room on promo price and it was an excellent deal! :) Overall, looking forward to come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2012</t>
+  </si>
+  <si>
+    <t>I always wanted to try Extended Stay America, so I did this time when my boyfriend came to visit me. The location is really convenient, right off at freeway exist. (the noise level is minimum, no freeway traffic noise when you are in the room) The service was great. they always seem a little busy but every staff is always so helpful. special thanks to Kristin. she helped us alot. The room is clean and no weird smell. I was worry the room would smell all nasty and oily because they have a mini kitchen in the room, fortunately, it doesnt. The bathroom is big. big space between mirror and toilet and shower area. :) The bed is comfortable. (I wish the blanket could be a little bit thicker... not sure it is cuz its summer season, so they switch to a thinner blanket or something..) 1 dining table and 1 office table and 1 chair each for each table. plenty office space. I wouldnt come back here for the regular room price, I got this room on promo price and it was an excellent deal! :) Overall, looking forward to come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r135973027-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>135973027</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Horrrible Experience</t>
+  </si>
+  <si>
+    <t>My experience during our stay was horrible.  Upon check-in was told they served breakfast in the morning between 6:00-9:00.  Showed up in the lobby and the coffee was the highlight at best.  Don't tell guests there is breakfast if you put out breakfast snacks.  Checked in on July 18th.  Smelled something burning on July 20th in the morning.  It appeared to be the A/C.  Unplugged the unit and notified the front desk.  They told me maintenance had the day off, but they would call. Coming back to the room that afternoon, no A/C, no maintenance, no word and no offer to change rooms.  Same thing happened again on July 30th.  Burning smell in the A/C.  Mentioned this again upon checkout on July 31st.  No apology, no offer of compensation, she just took down the room number.  If they didn't care, why should I.  We will never again stay at any one of the Exteneded Stay properties.  Many more perks and service from other hotel chains.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2012</t>
+  </si>
+  <si>
+    <t>My experience during our stay was horrible.  Upon check-in was told they served breakfast in the morning between 6:00-9:00.  Showed up in the lobby and the coffee was the highlight at best.  Don't tell guests there is breakfast if you put out breakfast snacks.  Checked in on July 18th.  Smelled something burning on July 20th in the morning.  It appeared to be the A/C.  Unplugged the unit and notified the front desk.  They told me maintenance had the day off, but they would call. Coming back to the room that afternoon, no A/C, no maintenance, no word and no offer to change rooms.  Same thing happened again on July 30th.  Burning smell in the A/C.  Mentioned this again upon checkout on July 31st.  No apology, no offer of compensation, she just took down the room number.  If they didn't care, why should I.  We will never again stay at any one of the Exteneded Stay properties.  Many more perks and service from other hotel chains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r134398056-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>134398056</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>will stay again @ Extended Stay America</t>
+  </si>
+  <si>
+    <t>Staff get an A+, clean, gr8 location, and you can cook your own food in the studio apt? will stay here again.central to all of our LA destinations.. and about 30 minutes or less away from all. nothing badMoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Staff get an A+, clean, gr8 location, and you can cook your own food in the studio apt? will stay here again.central to all of our LA destinations.. and about 30 minutes or less away from all. nothing badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r131939236-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>131939236</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I have stayed at the extended stay many times and my stay at this particualar simi valley location was incredible. The service and management sre so professional and kind. They treated me and my family as we were family. Mrs Verickal (Manager) is so kind and considerate. I do recommend extended stay and most definitely staying at the simi valley location. EXCELLENT !MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Simi Valley, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at the extended stay many times and my stay at this particualar simi valley location was incredible. The service and management sre so professional and kind. They treated me and my family as we were family. Mrs Verickal (Manager) is so kind and considerate. I do recommend extended stay and most definitely staying at the simi valley location. EXCELLENT !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r130242847-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>130242847</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>We Were Not Thrilled</t>
+  </si>
+  <si>
+    <t>We asked for non-smoking, and the room was supposed to have been, but it REEKED. So we asked to be moved and were. Then the advertised in-room Wifi never worked during the entire stay, despite efforts of the staff. (We travel a LOT and always use the hotel Wifi. This is the only time we've ever had a problem.) It was relatively noisy, and apparently they have feather pillows, judging by the loose feather pillows in both rooms. Not great for allergies. Finally, the 'grab-n-go' breakfast was horrible. Their advertising shows fresh fruit and pastries. Instead, there was a basket of tired-looking apples and packaged cereal bars and muffins. The choices in the vending machines were better.The only points are for the staff who were unfailingly nice and patient.My main issue was with the first room. Apparently housekeeping had not reported the problem or handled it appropriately. The hotel was in the right location, but that was all it had going for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We asked for non-smoking, and the room was supposed to have been, but it REEKED. So we asked to be moved and were. Then the advertised in-room Wifi never worked during the entire stay, despite efforts of the staff. (We travel a LOT and always use the hotel Wifi. This is the only time we've ever had a problem.) It was relatively noisy, and apparently they have feather pillows, judging by the loose feather pillows in both rooms. Not great for allergies. Finally, the 'grab-n-go' breakfast was horrible. Their advertising shows fresh fruit and pastries. Instead, there was a basket of tired-looking apples and packaged cereal bars and muffins. The choices in the vending machines were better.The only points are for the staff who were unfailingly nice and patient.My main issue was with the first room. Apparently housekeeping had not reported the problem or handled it appropriately. The hotel was in the right location, but that was all it had going for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r127472044-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>127472044</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Wow, what an upgrade!</t>
+  </si>
+  <si>
+    <t>I've stayed at this facility many times because of its location and easy access off the 118. I stayed there last night for the first time since their make-over...what a difference!  The rooms are gorgeous, great colors, very professionally done.  The staff has always been great but with this upgrade it's just that much better for the money.  I stayed in a queen room for $88 including tax.  Thank you!Traveling SteveMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at this facility many times because of its location and easy access off the 118. I stayed there last night for the first time since their make-over...what a difference!  The rooms are gorgeous, great colors, very professionally done.  The staff has always been great but with this upgrade it's just that much better for the money.  I stayed in a queen room for $88 including tax.  Thank you!Traveling SteveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r126197964-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
+  </si>
+  <si>
+    <t>126197964</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Not as Bad Anymore</t>
+  </si>
+  <si>
+    <t>They have renovated the lobby and rooms, and it shows (still making more renovations, from what I was told).  The rooms are nicer and are better quality.  They have plasma TVs and new furniture, and I admit it looks much better.
+I have rated this hotel as a 2 in the past, and I feel it's up to a 3 now.
+What I would still suggest to them is to check the cleanliness of all the dishes, because I would find dirty forks and cups in the cupboards.  Also, my phone wasn't working, a problem I had the last time I stayed there.  
+The staff is friendly, but not the most efficient.  They need to have more people working at one time instead of everybody going to lunch at once.  Also, they have no problem with discussing business around customers.  I didn't need to overhear how much profit the hotel made last month.  They also need to be taught that if they are with a customer, they need to answer the phone in this manner:  "Extended Stay, will you please hold?"  This would be much better instead of making customers wait and look at you while you're on the phone, trying to sort out someone else's long-winded problem.  
+Being there you get the feeling that the owners care about this place, but the staff doesn't.  When the staff cares about their job and their hotel, it shows in their work...They have renovated the lobby and rooms, and it shows (still making more renovations, from what I was told).  The rooms are nicer and are better quality.  They have plasma TVs and new furniture, and I admit it looks much better.I have rated this hotel as a 2 in the past, and I feel it's up to a 3 now.What I would still suggest to them is to check the cleanliness of all the dishes, because I would find dirty forks and cups in the cupboards.  Also, my phone wasn't working, a problem I had the last time I stayed there.  The staff is friendly, but not the most efficient.  They need to have more people working at one time instead of everybody going to lunch at once.  Also, they have no problem with discussing business around customers.  I didn't need to overhear how much profit the hotel made last month.  They also need to be taught that if they are with a customer, they need to answer the phone in this manner:  "Extended Stay, will you please hold?"  This would be much better instead of making customers wait and look at you while you're on the phone, trying to sort out someone else's long-winded problem.  Being there you get the feeling that the owners care about this place, but the staff doesn't.  When the staff cares about their job and their hotel, it shows in their work and in the way they act around customers, and that goes a long way.If you want somewhere to stay for the night, aren't an impatient person, and don't want to spend a lot of money, this is the place for you.  However, if you're used to Marriotts and Hiltons and expect that type of professional staff response, skip this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>They have renovated the lobby and rooms, and it shows (still making more renovations, from what I was told).  The rooms are nicer and are better quality.  They have plasma TVs and new furniture, and I admit it looks much better.
+I have rated this hotel as a 2 in the past, and I feel it's up to a 3 now.
+What I would still suggest to them is to check the cleanliness of all the dishes, because I would find dirty forks and cups in the cupboards.  Also, my phone wasn't working, a problem I had the last time I stayed there.  
+The staff is friendly, but not the most efficient.  They need to have more people working at one time instead of everybody going to lunch at once.  Also, they have no problem with discussing business around customers.  I didn't need to overhear how much profit the hotel made last month.  They also need to be taught that if they are with a customer, they need to answer the phone in this manner:  "Extended Stay, will you please hold?"  This would be much better instead of making customers wait and look at you while you're on the phone, trying to sort out someone else's long-winded problem.  
+Being there you get the feeling that the owners care about this place, but the staff doesn't.  When the staff cares about their job and their hotel, it shows in their work...They have renovated the lobby and rooms, and it shows (still making more renovations, from what I was told).  The rooms are nicer and are better quality.  They have plasma TVs and new furniture, and I admit it looks much better.I have rated this hotel as a 2 in the past, and I feel it's up to a 3 now.What I would still suggest to them is to check the cleanliness of all the dishes, because I would find dirty forks and cups in the cupboards.  Also, my phone wasn't working, a problem I had the last time I stayed there.  The staff is friendly, but not the most efficient.  They need to have more people working at one time instead of everybody going to lunch at once.  Also, they have no problem with discussing business around customers.  I didn't need to overhear how much profit the hotel made last month.  They also need to be taught that if they are with a customer, they need to answer the phone in this manner:  "Extended Stay, will you please hold?"  This would be much better instead of making customers wait and look at you while you're on the phone, trying to sort out someone else's long-winded problem.  Being there you get the feeling that the owners care about this place, but the staff doesn't.  When the staff cares about their job and their hotel, it shows in their work and in the way they act around customers, and that goes a long way.If you want somewhere to stay for the night, aren't an impatient person, and don't want to spend a lot of money, this is the place for you.  However, if you're used to Marriotts and Hiltons and expect that type of professional staff response, skip this place.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2782,5814 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>165</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>262</v>
+      </c>
+      <c r="X27" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>315</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>332</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>333</v>
+      </c>
+      <c r="X36" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>337</v>
+      </c>
+      <c r="J37" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>350</v>
+      </c>
+      <c r="X38" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>359</v>
+      </c>
+      <c r="X39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>367</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>229</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>401</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J45" t="s">
+        <v>405</v>
+      </c>
+      <c r="K45" t="s">
+        <v>406</v>
+      </c>
+      <c r="L45" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>108</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>165</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>229</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>423</v>
+      </c>
+      <c r="X47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>432</v>
+      </c>
+      <c r="X48" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>449</v>
+      </c>
+      <c r="O50" t="s">
+        <v>108</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>450</v>
+      </c>
+      <c r="X50" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>454</v>
+      </c>
+      <c r="J51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51" t="s">
+        <v>456</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>458</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>459</v>
+      </c>
+      <c r="X51" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>462</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>463</v>
+      </c>
+      <c r="J52" t="s">
+        <v>464</v>
+      </c>
+      <c r="K52" t="s">
+        <v>465</v>
+      </c>
+      <c r="L52" t="s">
+        <v>466</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>467</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>459</v>
+      </c>
+      <c r="X52" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>469</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>470</v>
+      </c>
+      <c r="J53" t="s">
+        <v>471</v>
+      </c>
+      <c r="K53" t="s">
+        <v>472</v>
+      </c>
+      <c r="L53" t="s">
+        <v>473</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>474</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>477</v>
+      </c>
+      <c r="J54" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" t="s">
+        <v>479</v>
+      </c>
+      <c r="L54" t="s">
+        <v>480</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>474</v>
+      </c>
+      <c r="O54" t="s">
+        <v>108</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>481</v>
+      </c>
+      <c r="X54" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>489</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>490</v>
+      </c>
+      <c r="J56" t="s">
+        <v>491</v>
+      </c>
+      <c r="K56" t="s">
+        <v>492</v>
+      </c>
+      <c r="L56" t="s">
+        <v>493</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>494</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>495</v>
+      </c>
+      <c r="X56" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>498</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>499</v>
+      </c>
+      <c r="J57" t="s">
+        <v>500</v>
+      </c>
+      <c r="K57" t="s">
+        <v>501</v>
+      </c>
+      <c r="L57" t="s">
+        <v>502</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>494</v>
+      </c>
+      <c r="O57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>503</v>
+      </c>
+      <c r="X57" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>506</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>507</v>
+      </c>
+      <c r="J58" t="s">
+        <v>508</v>
+      </c>
+      <c r="K58" t="s">
+        <v>509</v>
+      </c>
+      <c r="L58" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>511</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>512</v>
+      </c>
+      <c r="X58" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>515</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>516</v>
+      </c>
+      <c r="J59" t="s">
+        <v>517</v>
+      </c>
+      <c r="K59" t="s">
+        <v>518</v>
+      </c>
+      <c r="L59" t="s">
+        <v>519</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>520</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>521</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J60" t="s">
+        <v>523</v>
+      </c>
+      <c r="K60" t="s">
+        <v>524</v>
+      </c>
+      <c r="L60" t="s">
+        <v>525</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>526</v>
+      </c>
+      <c r="O60" t="s">
+        <v>108</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>527</v>
+      </c>
+      <c r="X60" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>531</v>
+      </c>
+      <c r="J61" t="s">
+        <v>532</v>
+      </c>
+      <c r="K61" t="s">
+        <v>533</v>
+      </c>
+      <c r="L61" t="s">
+        <v>534</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>526</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>535</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>536</v>
+      </c>
+      <c r="J62" t="s">
+        <v>537</v>
+      </c>
+      <c r="K62" t="s">
+        <v>538</v>
+      </c>
+      <c r="L62" t="s">
+        <v>539</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>526</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>540</v>
+      </c>
+      <c r="X62" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>543</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>544</v>
+      </c>
+      <c r="J63" t="s">
+        <v>545</v>
+      </c>
+      <c r="K63" t="s">
+        <v>546</v>
+      </c>
+      <c r="L63" t="s">
+        <v>547</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>526</v>
+      </c>
+      <c r="O63" t="s">
+        <v>108</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>540</v>
+      </c>
+      <c r="X63" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>549</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>550</v>
+      </c>
+      <c r="J64" t="s">
+        <v>551</v>
+      </c>
+      <c r="K64" t="s">
+        <v>552</v>
+      </c>
+      <c r="L64" t="s">
+        <v>553</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>526</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>555</v>
+      </c>
+      <c r="J65" t="s">
+        <v>556</v>
+      </c>
+      <c r="K65" t="s">
+        <v>557</v>
+      </c>
+      <c r="L65" t="s">
+        <v>558</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>559</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>560</v>
+      </c>
+      <c r="X65" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>560</v>
+      </c>
+      <c r="X66" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>570</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>559</v>
+      </c>
+      <c r="O67" t="s">
+        <v>108</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>574</v>
+      </c>
+      <c r="X67" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>578</v>
+      </c>
+      <c r="J68" t="s">
+        <v>579</v>
+      </c>
+      <c r="K68" t="s">
+        <v>580</v>
+      </c>
+      <c r="L68" t="s">
+        <v>581</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>582</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>583</v>
+      </c>
+      <c r="X68" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>586</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>587</v>
+      </c>
+      <c r="J69" t="s">
+        <v>588</v>
+      </c>
+      <c r="K69" t="s">
+        <v>589</v>
+      </c>
+      <c r="L69" t="s">
+        <v>590</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>591</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>592</v>
+      </c>
+      <c r="X69" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>595</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>596</v>
+      </c>
+      <c r="J70" t="s">
+        <v>597</v>
+      </c>
+      <c r="K70" t="s">
+        <v>598</v>
+      </c>
+      <c r="L70" t="s">
+        <v>599</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>591</v>
+      </c>
+      <c r="O70" t="s">
+        <v>165</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>592</v>
+      </c>
+      <c r="X70" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J71" t="s">
+        <v>603</v>
+      </c>
+      <c r="K71" t="s">
+        <v>604</v>
+      </c>
+      <c r="L71" t="s">
+        <v>605</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>606</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>607</v>
+      </c>
+      <c r="X71" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s">
+        <v>612</v>
+      </c>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>614</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>615</v>
+      </c>
+      <c r="X72" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+      <c r="L73" t="s">
+        <v>622</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>623</v>
+      </c>
+      <c r="O73" t="s">
+        <v>165</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>624</v>
+      </c>
+      <c r="X73" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>627</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>628</v>
+      </c>
+      <c r="J74" t="s">
+        <v>629</v>
+      </c>
+      <c r="K74" t="s">
+        <v>630</v>
+      </c>
+      <c r="L74" t="s">
+        <v>631</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>606</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>632</v>
+      </c>
+      <c r="X74" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>635</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>636</v>
+      </c>
+      <c r="J75" t="s">
+        <v>637</v>
+      </c>
+      <c r="K75" t="s">
+        <v>638</v>
+      </c>
+      <c r="L75" t="s">
+        <v>639</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>606</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>640</v>
+      </c>
+      <c r="X75" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>643</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>644</v>
+      </c>
+      <c r="J76" t="s">
+        <v>645</v>
+      </c>
+      <c r="K76" t="s">
+        <v>646</v>
+      </c>
+      <c r="L76" t="s">
+        <v>647</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>648</v>
+      </c>
+      <c r="O76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>649</v>
+      </c>
+      <c r="X76" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>652</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>653</v>
+      </c>
+      <c r="J77" t="s">
+        <v>654</v>
+      </c>
+      <c r="K77" t="s">
+        <v>655</v>
+      </c>
+      <c r="L77" t="s">
+        <v>656</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>657</v>
+      </c>
+      <c r="O77" t="s">
+        <v>229</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>658</v>
+      </c>
+      <c r="X77" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>661</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>662</v>
+      </c>
+      <c r="J78" t="s">
+        <v>663</v>
+      </c>
+      <c r="K78" t="s">
+        <v>664</v>
+      </c>
+      <c r="L78" t="s">
+        <v>665</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>657</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>666</v>
+      </c>
+      <c r="X78" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>669</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>670</v>
+      </c>
+      <c r="J79" t="s">
+        <v>671</v>
+      </c>
+      <c r="K79" t="s">
+        <v>672</v>
+      </c>
+      <c r="L79" t="s">
+        <v>673</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>674</v>
+      </c>
+      <c r="X79" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>677</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>678</v>
+      </c>
+      <c r="J80" t="s">
+        <v>679</v>
+      </c>
+      <c r="K80" t="s">
+        <v>680</v>
+      </c>
+      <c r="L80" t="s">
+        <v>681</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>657</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>682</v>
+      </c>
+      <c r="X80" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>685</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>686</v>
+      </c>
+      <c r="J81" t="s">
+        <v>687</v>
+      </c>
+      <c r="K81" t="s">
+        <v>688</v>
+      </c>
+      <c r="L81" t="s">
+        <v>689</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>690</v>
+      </c>
+      <c r="O81" t="s">
+        <v>108</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>691</v>
+      </c>
+      <c r="X81" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>694</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>695</v>
+      </c>
+      <c r="J82" t="s">
+        <v>696</v>
+      </c>
+      <c r="K82" t="s">
+        <v>697</v>
+      </c>
+      <c r="L82" t="s">
+        <v>698</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>690</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>699</v>
+      </c>
+      <c r="X82" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>702</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>703</v>
+      </c>
+      <c r="J83" t="s">
+        <v>704</v>
+      </c>
+      <c r="K83" t="s">
+        <v>705</v>
+      </c>
+      <c r="L83" t="s">
+        <v>706</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>690</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>707</v>
+      </c>
+      <c r="X83" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>710</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>711</v>
+      </c>
+      <c r="J84" t="s">
+        <v>712</v>
+      </c>
+      <c r="K84" t="s">
+        <v>713</v>
+      </c>
+      <c r="L84" t="s">
+        <v>714</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>715</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>716</v>
+      </c>
+      <c r="X84" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>719</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>720</v>
+      </c>
+      <c r="J85" t="s">
+        <v>721</v>
+      </c>
+      <c r="K85" t="s">
+        <v>722</v>
+      </c>
+      <c r="L85" t="s">
+        <v>723</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>724</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>716</v>
+      </c>
+      <c r="X85" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>726</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>727</v>
+      </c>
+      <c r="J86" t="s">
+        <v>728</v>
+      </c>
+      <c r="K86" t="s">
+        <v>729</v>
+      </c>
+      <c r="L86" t="s">
+        <v>730</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>731</v>
+      </c>
+      <c r="O86" t="s">
+        <v>108</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>716</v>
+      </c>
+      <c r="X86" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>733</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>734</v>
+      </c>
+      <c r="J87" t="s">
+        <v>735</v>
+      </c>
+      <c r="K87" t="s">
+        <v>736</v>
+      </c>
+      <c r="L87" t="s">
+        <v>737</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>738</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>716</v>
+      </c>
+      <c r="X87" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>739</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Parislover1959</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here because close to family for visit and pet friendly. Stayed in February also of this year. Same crashed cars unable to be driven still in same spots in parking lot. Same broken down trailer on wood blocks in parking lot. Same groups of people hanging in back parking lot partying all night. Trash bags left in hallways and stairwells. Asked front desk for two extra pillows. Was told that operating on such a low budget they didn’t have any. Directed me to nearest Target where I could buy some “Two for seven dollars”. Later received a call they had found two, but didn’t have pillowcases. Really? Flabbergasted. I thought last time was just a bad week for the area. But obviously they don’t care about regular guests opinions or reviews left last time. Rooms are clean though!More</t>
   </si>
   <si>
+    <t>185raminb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r569017027-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Very nice staff who were attentive and punctual.  Anything I needed, they took care of. I was very happy with the service and will be coming here again.  The location is great whether its for business or pleasure.More</t>
   </si>
   <si>
+    <t>will678021</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r568565431-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I seriously regret every considering trying this place.  Absolutely the worst hotel with the worst service from Natalia ever.  We absolutely without fail booked a 2 queen room from Priceline and when we arrived at  10 pm they had only 1 queen for our family of 4.  We were told to contact Priceline.  They contacted the hotel to find that no rooms were available and then came back to us insisting that we only booked 1 bed after finding out that no 2 bed rooms were available.During the previous encounter with Natalia when we asked for extra pillows/bedding or a pull away bed to accomodate but she insisted there weren't any. After priceline called them, suddenly it became available but for an extra $10.  This whole scenario was a joke plus when we entered the room the garbage including Subway sandwich wrappers were still all over the kitchen!  Place was not properly prepared.  Rude service and horrible everything.   We found out that if you don't check in by 6pm despite prepaying for the room they give your room away!  The worst part is they deny your original configuraion.More</t>
   </si>
   <si>
+    <t>vtarocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r546918597-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>We stayed here when we were evacuated from our  home due to fire.  We reserved two rooms for 4 people plus dog, but when we got there, they could not find reservation.  We waited 2 1/2 hours (from 3 am to 5:30 am) while incompetent woman at desk who barely spoke English s-l-o-w-l-y checked in only 3 other parties.  After telling us there were "zero rooms" she finally found a room with 1 bed for the 5 of us.  At breakfast, coffee was empty, no food.  Rather than be a respite from the fire, this experience added to our misery.More</t>
   </si>
   <si>
+    <t>Nestor Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r544879617-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>we start with bad bathroom, there's no relaxing shower in the bathtub, it has a hole, it doesn' t keep the water, besides u have a cup for water but no botles of water and if u have to wait around 30 min for check in because there's no people, do u think u gonna find someone to help...I really doubt it!More</t>
   </si>
   <si>
+    <t>Joseph H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r537785476-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Customer service is what will make or break a business. It is the customers money a business needs and there are always other places that offer better service that get more money. Management should know this but if management appearance is unpainted fingernails and wrinkled clothes it means there isn't a big push for cleanliness - clerks were better looking and cleaner and most importantly HELPFUL.More</t>
   </si>
   <si>
+    <t>Rob341</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r513282319-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>We had a family reunion in another town, on our way back home drove through Simi Valley and stayed at the Extended Stay America on Stearns St. Noticed several cars parked in parking lot that had been there a while including one with a very flat tire, not sure why those cars were still there. We did have our 19 Lb pet dog with us.We did notice a smell in hallway of second floor, so not so clean. The room was good, clean withgood floor plan for us, oversize handicap room. The staff was a bit disengaged towards guest, which was a bit surprising  as we had two other couples with us for a total of three rooms rented. The location was good and The value for Simi Valley was goodMore</t>
   </si>
   <si>
+    <t>Atchoo1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r507645526-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>The hotel was clean for the most part, except upon arrival the outside garbage cans were overflowing with trash, but later emptied the next day. The hotel may want to invest in large cans or promote the ability to cook in the rooms to guests when reserving rooms.  Most of the trash was from take out containers from nearby restaurants. Pet friendly: floors are 'hardwood flooring'; pet areas around the hotel are mostly dirt with some wood chips.  It would be nice if pet owners would pick up after their dogs.  The hotel even provides poo bags (thank you) on the grounds!More</t>
   </si>
   <si>
+    <t>fenc604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r507260720-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>We had 3 adults and 2 children and booked through bookings.com. We used Booking.com search which allowed us to specify number of children, which was not available on other sites. We thought we found a good fit for our hotel and specified in the special request that we needed a rollaway bed. When we arrived, Extended Stay said we didn't make such request and the only rollaway bed available had to be given to a hotel guest who only had one queen bed (very strange reason). The manager showed me their booking form and it only had the first line from our special request communicated by Booking.com. We called Booking.com and they said the hotel does not have to honor our request because the terms said it is up to the hotel to honor our request. Their confirmation email had listed the entire special request even though the hotel's booking form had only a part of it. We asked for the discrepancy and they said they are sorry but there is nothing they can do for us. The only thing they can do is to cancel our reservation and give us a list for other hotels in the area. We asked how much time we have and the reply was less than an hour, 6pm. Terrible services both from Booking.com and Extended Stay. More</t>
   </si>
   <si>
+    <t>511robync</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r501604548-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>There is a gas station, small store, several restaurants and even a bowling alley all in walking distance. The store was open late so I was able to get  snacks and refreshments for the family. The parking lot was well lit and felt safe. Several guests were outside walking their pets.More</t>
   </si>
   <si>
+    <t>PinkMetal83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r500337384-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>It's clean enough, and there is a kitchen. Blankets and bed are a far cry from cozy, kitchen accessories are no longer in the room but can be picked up at the front desk. It's not particularly unsafe, it's just not a very cushy accommodation. The price matches the quality...it's like the motel 6 or holiday inn express or other budget brand added a kitchen. We saved on meals out but were glad to go when the time came. No frills but no bedbugs so I guess that's also a plus. Smoker and pet friendly. Great donut shop in the shopping center adjacent. Under the govt per diem. More</t>
   </si>
   <si>
+    <t>Levon K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r500598099-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>We came from abroad an stayed in this convenient place close to our friend's house in a quiet neighborhood. Were very satisfied with location and service. Breakfast could be better. Definitely recommend this location.More</t>
   </si>
   <si>
+    <t>leng695</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r532509340-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>Stayed there for 3 months with another two months to go.  Clean and comfortable accommodations at a reasonable price. Terrific staff!  Most issues resolved in a timely manner.  Internet is slow.  Pet friendly.More</t>
   </si>
   <si>
+    <t>santamary2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r498231176-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>It was a nice and comfy room. Bed could have been softer. I like the amenities of the hotel. Breakfast is included. The hotel is a great location to break a long drive from Santa Maria to San Diego. RN 119 smells like sweat but other than that it was a great day there.More</t>
   </si>
   <si>
+    <t>Gmakgon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r497345405-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>It was too hot and needed a cool getaway where my son and his dog to visit me in a cool place. My son is homeless with a dog in this heat is hard for me sometimes so I get a room where we can visit and get him off the streets for a shower and mealMore</t>
   </si>
   <si>
+    <t>federicomR2866BX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r494445764-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -576,6 +624,9 @@
     <t>The hotel was very poor at customer service  when i arrived back on 6.18.71 I wanted to re stay at hotel but as i came back i was turned away. i reserved my room on time and it was set but upon my arrival for check in on 6-18-17 i was turned away.More</t>
   </si>
   <si>
+    <t>42kennedyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r493663737-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>The house keeping needs to improve the cleaning schedules on the weekly guests and have people to clean the rooms. The front desk could use some help with the reservations and the people staying are loud on the weekends.More</t>
   </si>
   <si>
+    <t>V8350WWwilliamf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r493434258-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Check for proper operation of the plumbing when you first come in the room.  The hotel doesn't inspect for this.  I wound up holding a meeting with my European clients without the benefit of a working shower.. I doubt that impressed them in a positive way!More</t>
   </si>
   <si>
+    <t>Amanda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r492298287-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Great location by the HWY. Near a shopping center with a subway. In &amp; out burger down the street. Staff is always nice and helpful. Laundry, snack machine available. Rooms are decent with kitchen and fridge. More</t>
   </si>
   <si>
+    <t>Clubmystere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r491843739-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -672,6 +732,9 @@
     <t>The hotel was Overpriced &amp; dated. No value for money. Hardly anything for breakfast. Staff was too slow at the time of check in. Our key stopped working after one day. There was only one elevator for the whole hotel.More</t>
   </si>
   <si>
+    <t>Patch-KL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r491776997-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>Somehow, bookings.com didnt make the booking. But the receptionist didnt allow us to connect online to skype call bookings.com.To be fair, the receptionist was the only one manning the counter and managing the cleaners. Understaffed. 2. I dont like that the room I stayed had pets living in it as being a dog owner, I know that pets can have fleas and we saw an insect scurrying inside the room. They should seperate the floors for pets and non pet stayers.3. Breakfast was pathetic other than the drinks and cereal.bars. All sweet stuff.More</t>
   </si>
   <si>
+    <t>Karen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r488164923-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -717,6 +783,9 @@
     <t>This motel was a very happy surprise.  The room was in excellent condition, very clean, and also appealing.  I felt like I was in a brand new model apartment and not a motel.  The location was convenient and it was quiet.  I can't say enough about how wonderful this experience was and on top of it all the value was beyond compare.More</t>
   </si>
   <si>
+    <t>Kathi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r488058773-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -735,6 +804,9 @@
     <t>Holiday weekend. &amp; a big music festival in town.  One desk employee with poor English checking people in. Took an hour to get checked in. Kitchen had no dishes, no coffee pot, nothing. Horrible customer service! "Breakfast" consisted of granola bars!More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r486545713-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>We booked a non smoking room online then when we arrived was told there are no non smoking room available..we were given a smoking room..since we both don't smoke the smell was annoying. They should check availability of the rooms before taking reservations..More</t>
   </si>
   <si>
+    <t>JaneandHarryM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r475580828-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -784,6 +859,9 @@
   </si>
   <si>
     <t>Our bathroom was being renovated and we had to rent a room for about 5 days.  Extended Stay Simi Valley had a weekly rate and the reviews were somewhat good.  When we checked in there was a sign at the front desk saying the clerk was on break.  45 minutes later she returned and checked us in.  Hallway reeked of cigarette and weed.  Room smelled like a chimney and we were told it was a nonsmoking room and hotel.  There was a man in a wheelchair who kept asking us to help him.  The people in the room next to us were fighting at 2 am.  We tried calling the front desk but no answer.  I went to the front desk and that on a break sign was up.  We had enough after two nights so we took off and for $20.00 more a night, stayed at the Marriott.  When we checked out of Extended Stay the front desk person asked us to fill out some customer service survey and give them all high marks after we said the hotel was awful and the room and hallways reeked of cigarette and weed.   Worst hotel we have stayed at.More</t>
+  </si>
+  <si>
+    <t>Jennifer Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r472799857-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
@@ -821,6 +899,9 @@
 We called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we...From the time we checked in we had issues!!!! We booked a room for one rate and was charged a completely different rate!!! When asked about the promotional rate we were told we had to pay in full at check in then it would be refunded the day we leave!!! 1st off I don't know any hotel that makes u pay for the hotel day of check in in full but a hourly motel!!! Needless to say at Check out u had to Request your refund!!! Then they insist on only using a card u check in with i feel if I want to change which card I'm paying with that's MY BUSINESS!!!I ALSO HATED HAVING TO ALWAYS GO DOWNSTAIRS IF I NEEDED ANYTHING!! TISSUE SOAP UTENSILS!! THEY DON'T OFFER TO BRING ANYTHING TO U!! BREAKFAST IS A JOKE!! THERE'S JUST GRANOLA BARS AND COFFEE  Then we had a incident were someone's dog on our hall pooped by our door and  it was trails down the hallway!! We told the staff that afternoon! Well when we came back that evening what surprise did we have waiting for us at our door??? The same Dog Pooped that was there when we left at about 1pmWe called down again and actually passed someone working there in the hallway on the way to our room!!! Well guess what my husband picked it up from by our room door!!! But when we woke up to go out the next morning  the same poop was still on the side of our door lingering down the hall!!! YESSSSS ALLLLLL DAY LONG!!!! I then went downstairs to ask why it had not be clean Like our room had not also Been clean all she could stay about the room was oohhhhhh not sorry or anything so I said forget the room want about the dog poop she said that's not the hotels responsibility to clean the guest poop they know that when they check in!! I'm explained to her that it has been there in the hallway by our door for more than 24hours which means house keeping and everyone else had to see it. She agains tell me that's not there problem!!! Floored by this I asked for a Manager to address my concerns and of course no manager is there checkout rolls around and were still asking for a Manager to express our concerns still no manager no call no anything!!! We Spend well over 400. For a Dump of a Trip in a BEAUTIFUL AROUND THAT'S BEING RAN DOWN BY THIS HOTEL!!!I'M SO BEYOND DISCUSSED!!!I WILL BE CONTACTING CORPORATE SINCE THEY HAVE NO MANAGEMENT THAT COULD ADDRESS OUR ISSUES!!More</t>
   </si>
   <si>
+    <t>Didier M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r461594654-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -842,6 +923,9 @@
     <t>I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for...I was scheduled for a 3 day stay at your hotel.  I asked for a 1 day extension and was accomodated. At check-in i was asked for credit card and gave it. We only paid for first night and was satisfied. Next day we would have to change rooms because that was the only way we could stay at the hotel. Next day came we were told we would have to wait for our room, there was a problem with plumbing. We thought okay. Then we were told to reprocess the credit card. At this point I explained that the card was on file for the prior night. Management insisted to have the credit card again. I explained the room was a courtesy from my father and he had paid for the room the night before and had apparently taken it with him. Management insisted on the card, I called my father who was driving to Idaho. My father was explained the situation and told management to just use the card on file from the prior night. Apparently Extended Stay's policy is to use the credit card no matter the situation. My father explained he was on his  way to Idaho and it was impossible to turn back. Management insisted on the card. I was forced out of my home because it was being tented for termites and needed the hotel along with my brother. We were staying here for the duration. My father and management started to get heated up about the situation. My father voiced his feelings about stupid rules and management felt they had been called stupid. My father than proceeded to defuse the situation and apologized for his manner. Management accepted but still insisted on the credit card. My father explained the only way to pay for the room under these circumstances were he would have to involve his mother. (Grandmother walks with a cane has diabetes and arthritis and is 84 years old and can no longer drive). Management said, Fine. I hung up from my father and called my grandmother who was willing to help. I came back one hour later with her in the rain. Management won a pitiful war. She paid for the room and my father reimbursed her when he returned. I was slighted, my family was insulted. So does this answer any negative or positive aspects of my experience.More</t>
   </si>
   <si>
+    <t>Vipul_Satam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r446851092-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -860,6 +944,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>lmskipper45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r445446949-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -881,6 +968,9 @@
     <t>My sister and I traveled to Simi Valley for a funeral and had to stay at this hotel for 5 days. Worse hotel ever. We should have known when we were told that housekeeping cleans the room every 7 days. REALLY!!! The first room we were given reeked of cigarette. We were given another room that had a stopped up bath tub and sink. Stains on the dust ruffles of the beds. Outside was even worse. This hotel houses homeless people, most with dogs. Dog poop on the gravel in the walkways. Garbage throughout the parking area and at one time the lights went out for more than 2 hours. They claim to serve a continental breakfast but it's only small packaged muffins and coffee. We were charged 120.00 a night. I do not recommend this hotel to ANYONE and will NEVER stay there again. The people at the front desk were not polite at all. Useless people if you ask me.More</t>
   </si>
   <si>
+    <t>Grasper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r437216094-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -908,6 +998,9 @@
     <t>The facility is located off the freeway. The facility has been remodeled. The rooms have kitchenettes. The facility is very quiet. They offer free Wi-Fi and breakfast snacks. Generally nice personnel and cable TV.More</t>
   </si>
   <si>
+    <t>itdave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r430867718-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -929,6 +1022,9 @@
     <t>We travel to Simi Valley often to visit family. This time we decided to try Extended Say. Very bad choice. We like to check in early stopped by at noon they said call about 2pm to check on room availability. Called they said room is ready, got there started check-in opps wrong room type. They said room would be ready in 20 to 30 minutes. Ended up sitting in lobby for an hour being told just a couple of more minutes. The room was fine for an extended stay but not we like for a couple of nights. No carpet, no in room coffee, large frig no ice, no pool and free breakfast is plastic wraped muffins. More</t>
   </si>
   <si>
+    <t>interiordena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r410250193-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -956,6 +1052,9 @@
     <t>My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were...My kids and I spent the night at the Simi Valley Extended Stay America because everything in town was booked and we needed a place that allowed pets at the last minute. What a mistake. It was more expensive than most of the other hotels in the area. The hallways and our room reeked of cigarette smoke even though the establishment claimed to be non-smoking. When I told the woman at the front desk how strongly the room smelled of smoke, she just shrugged and said that they "try to keep smoking on only one side of the building." I said that I thought the whole building was non-smoking and she confirmed that it was and looked sheepish. The bedding was worn and grungy and even had burn holes in it. My dog found an old chewy under the bed, so they obviously don't clean underneath it. The carpet was full of stains. The kitchen was empty and dishes had to be ordered. Some items, like the coffee pot and toaster were an extra charge. The blankets were rough to the touch and the towels were thin and scratchy. One of the towels even had a long gray hair on it. The "free breakfast" was granola bars, packaged muffins, and coffee. They didn't even have decaf. On top of all that, the whole place looked run down and shabby. There were even white patches where holes in the wall were not even painted over. What a disappointment:(More</t>
   </si>
   <si>
+    <t>Yobabs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r404737140-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -980,6 +1079,9 @@
     <t>I stayed there one night, on a Saturday night.The room was a bit odd, in that it had hard floors.  I'd have expected that to cause more noise, but it wasn't bad, at least on a weekend.The room had a 2-burner electric coil stove, a full-sized fridge and a small microwave.The bed was fine, and there was a recliner chair, which was a nice touch.Breakfast was totally minimal: packaged muffins and granola bars, regular coffee (no decaf), and hot water for making tea or hot chocolate.All in all, it was fine, if a bit pricey.More</t>
   </si>
   <si>
+    <t>kmzfat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r391938177-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1007,6 +1109,9 @@
     <t>I made a huge mistake of booking a room here through Hotwire. This is NOT a real hotel. It's a poorly run MOTEL that provides house keeping services only once a week, Don't waste your money here- there are much nicer hotels in the area.More</t>
   </si>
   <si>
+    <t>KUMtngal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r381509920-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1034,6 +1139,9 @@
     <t>...was in Simi for a night, and gave   the hotel a second chance...Stayed here last summer and there were problems. This time it was okay, but there was a new front desk clerk who shouldn't have been left alone. He was very nice, but still needed help.They put me in a pet room with no carpet, and I didn't really like that. They moved me to a better room, so all was well.I was only in the room to sleep, so I did not partake in their grab n go snack... There was hot coffee and that is all that mattered.I would stay here again, but I hope they work on their staff...More</t>
   </si>
   <si>
+    <t>Tom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r380292807-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1061,6 +1169,9 @@
     <t>The girl at does the night check in is very nice, but the guy (Omar) in the morning is a complete jerk.  They ran out of coffee before 8:00am and the "grab and go" breakfast was also completely put away before 8:00.  Has a full kitchen, but you have to request every dish, including a coffee maker, which you should since there will not be any coffee left in the morning.More</t>
   </si>
   <si>
+    <t>Dave B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r370131712-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1085,6 +1196,9 @@
     <t>Great locational and new building. Full size refrigerator is a huge plus.  The "breakfast" is a joke so they should just say free coffee. The room was quite and perfect for a solo or couple. much better option that other inexpensive hotels in the area.More</t>
   </si>
   <si>
+    <t>jzmensch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r365851331-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1112,6 +1226,9 @@
     <t>My wife and I have been staying here for the past six months. Love every minute of it. The location is fabulous. The very large room and the wonderful amenities can't be beat. Extremely clean, comfortable and quite. Just like home! The staff treats us like Royalty. We especially appreciate the kindness that we receive from Dionne, Shery, Maria, Amar and Michael. But above all, this all happens because of the manger, Chris Govani. Chris is absolutely unbelievable. He runs this hotel as if it were a5 Star establishment. And it really should receive that rating. Thanks Chris for 6 great months.More</t>
   </si>
   <si>
+    <t>Bribear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r365272546-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1139,6 +1256,9 @@
     <t>iI stopped here on my way to Santa Barbara.  The internet was not working when I arrived in the afternoon.  It was not working when I left the next morning.  This is not acceptable when vital communication is needed while on a trip, but not available.In addition, this is a stick built structure, not poured concrete.  As a result you clearly hear the other guests as they move about on they move about on the floor above you.More</t>
   </si>
   <si>
+    <t>Raymond H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r317195973-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1163,6 +1283,9 @@
     <t>The staff is great. The rooms are what travelers want for a good night's sleep and even the option to make your own breakfast and other meals with a full kitchen in every room. Easy reservation process via the internet.More</t>
   </si>
   <si>
+    <t>blbisaac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r313156175-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1190,6 +1313,9 @@
     <t>Very nice and staff was professional. Cleaning service comes in everyday if you request. You receive dishes, towels, etc upon request as well. Stores and shopping is close by. Perhaps forty five minutes from LAX airport. They provided directions to restaurants and other areas of interest.More</t>
   </si>
   <si>
+    <t>mannygoesplaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r310236269-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1214,6 +1340,9 @@
     <t>Economy and Convenience.Those two things summarize why we like this brand and this stay for us was just that.We stayed here out of need when visiting friends nearby and did not want to inconvenience them. It was relatively cheap and easy to get to.The room itself is your basic ESA room: double bed, TV, A/C, "kitchen", full size fridge, and your basic bathroom.The staff here was very professional and helpful when compared to other ESA that we have stayed at so kudos them :) Nothing in particular about the room impressed us about this location, it was what we expected except for a big no-no for me...pubic hairs on the toilet!I am writing this review on my desktop but pictures are on my phone, but I'll spare you all the pics, unless I'm asked by someone to upload them.To management: please have your cleaning staff pay attention to detail when cleaning the rooms. Hygiene is not a negotiable point for us no matter how little we pay.More</t>
   </si>
   <si>
+    <t>MeSSanFrancisco_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r295376254-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1235,6 +1364,9 @@
     <t>Pet friendly - 2 Double Bed room with Full Kitchen was supposed to be a non-smoking room, but when we walked in, room smelled like cigarette smoke that's been lingering for awhile. After coming home, our suitcases, clothes,  etc. still smelled like cigarettes and we were only there for 2 nights! Staff was friendly and tried to correct the situation, but when the room smells like a chain smoker has been there for awhile, it's hard to remove the smell immediately.  They were all sold out and didn't have an alternate room to move to. State of room besides the smell was moderate since it looked partially renovated within the last few years (new paint and flooring) but lavatory sink was cracked, chairs and carpet were badly stained, bathroom exhaust fan sounds like it will break soon, and bathroom floor had a burnt hole in it.Free breakfast was grab and go,  but the 2 mornings we tried to get some, they ran out, and took a long time to restock.  They need to hire more staff to accommodate the replacement of food and beverages as well as check-in. Again, staff was doing their best. Free self parking and wifi. Wish we could've rated it better, but can't. More</t>
   </si>
   <si>
+    <t>Kribyle D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r291605162-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1259,6 +1391,9 @@
     <t>Stayed here for a week and never regret. I made my booking online (priceline) and was offered a very reasonable rate. Spacious room, friendly staff and accessible to any point of my visit in Simi Valley. My only challenge was this hotel is pet friendly and sometimes dogs from the next door is bothering us. Otherwise, a perfect place if you plan an Extended Stay. We will surely stay in this place on our next visit to Simi Valley.More</t>
   </si>
   <si>
+    <t>Paul V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r290279693-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1277,6 +1412,9 @@
     <t>If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"...If you are looking to see a good review to assure you to stay here you probably do not want to read on. Let me tell you about my experience at this motel. My first impression was excellent I was greeted by a friendly young lady the kind of stuff that if I had a hotel I would want to have multiples of. She was pleasant, accommodating,  and if there were any shortcomings she was apologetic. She cheerfully brought supplies up to my room that were provided by the hotel but not stocked in the room. Things like silverware and plates, and even after she got up here to my room, and I realized that they weren't stocking dish soap, she gladly offered to run and get some for me. It really was a nice start to what could have been a wonderful stay. Unfortunately all my dealings with the staff after that where downright irritating, and I was completely let down. The thing about this experience is it really did not have to be this way if only the staff were more compassionate and sympathetic to their shortcomings. the bad experience started with a call down to the desk to ask for help with getting on to the WiFi. Griffin was his name. Griffin said in reply to my request for help with the WiFi "Sure I can help you, just bring the computer down to the front desk"  I said to him, "Wait I don't want to bring it down there, can you tell me, what is the name of the WiFi"? Griffin  then shot off the abbreviation that they use. So I then asked, "Well am I going to need a password"? Griffin says "oh yeah the password is,..."and told me it. I know that doesn't sound so bad and it really isn't, but come on, if your going to help somebody give them the information they need. Obviously there's no caring about whether or not the guest is getting what they want, that was apparent from the "I can't be bothered with you" attitude. when I checked in, my room had one washcloth. There were four towels but only one washcloth.  Weird right? I called the  front desk because I wanted to have some ice. I asked where can I find some ice.  Griffin tells me that there are ice trays in the freezer. I replied, "I looked in the freezer and there were ice trays but they were turned upside down". Griffin with his snide attitude replies, "Turn the ice trays right side up and fill them with water". I said, "I know how to use ice trays. I want to have ice now" to get ice the way that he was suggesting would take hours. I asked, "Do you have any ice down there"? and he said no. I said it might be a good idea in the future if housekeeping would actually fill the ice trays so that when a guest needs ice the ice is in the form of ice not water. He said he would suggest that.I went down to the front desk and said may I please have a couple of washcloths. Griffin who is still behind the desk says to me we don't have any washcloths and then turns and walks away. I said hey wait a minute are you just going to tell me that you don't have any washcloths and not even let me know when I can possibly have another wash cloth? that's kind of lame. To Griffin's credit he agreed that that was kind of lame and said we are all booked up and we are out of washcloths and I won't be able to get you one until 7 in the morning. I then asked him again, are you sure you don't have any ice down here anywhere. and Griffin replied no we don't do you want to come look in what we have come to expect from Griffin in a very Snide way. "alright if you're offering then I'm going to look", I replied. When he revealed the refrigerator to me, that wasn't even a freezer, it was, well obvious that you can't have ice in there. I'm sorry I said,  its just I have never been in a hotel that doesn't offer ice. He said you can go to the corner gas station and get some ice. I said gosh even at Motel 6 they have ice I've never been at a hotel that doesn't have ice.  Griffin says to me well this is extended Stay America. &amp; I said thanks for the reminder I'll remember that the next time I'm deciding on where to stay and I'll choose Motel 6 over you. I left the hotel and was talking to my friend about how ridiculous the customer service is here and thought about how a rude desk clerk can just change your whole experience. I came in here feeling good about staying here and at this point I couldn't even think of staying another night and didn't want to. Unfortunately I had two nights paid in advance. Now I can see why they asked for the money in advance because they're afraid they're going to lose more customers like they probably have in the past. I said to my friend I'm going to post a bad review because I am NOT happy. I then said you know I'm going to call the manager and tell him what's going on it does not seem fair to just write a bad review. I called and Griffin answered ugh, I ask for the manager.Well the manager Jose, I believe his name was, was no better, in fact I could see just where Griffin got his attitude. When presented with the opportunity to make it right he had nothing to offer in fact after telling him exactly what I explained in this review,  and that I would rather not give a Bad review, he started with this sentence, and darnit I just do not understand why? He says, "you booked through hotels.com". why would he say that? I don't understand, I paid a hundred and twenty dollars a night for this glorified Motel 6 that can't even supply you with a washcloth or ice or clean floors, or clean furniture. And by the way, does not give you clean sheets every night nor did they come in and clean the room. What does it matter where I booked that makes no sense to me why he would lead with that. Then he went on to defend his snide employee Griffin even though I let him know I was giving him a chance to avoid the bad review. obviously they don't care so here it is for you to decide would you want to stay here. If you still say yes great, they can make money in spite of themselves. If you would like to have a good customer service and feel good about the hotel that you're staying in do not choose this hotel. The management is creating a culture of disdain for the customer the very people that they rely on to get their paychecks I feel very badly for this chain. Perhaps this is only in Simi Valley but I will never stay at another Extended Stay ever again. Maybe with the exception of, if all the other hotels are booked, and yes I'd rather even stay at a Motel six.More</t>
   </si>
   <si>
+    <t>Lorri S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r280251125-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1304,6 +1442,9 @@
     <t>We spent two nights here and were put in a handicap accessible room as that was what was available. Queen size bed was comfy but pillows were small and flatter than what I like. Had a nice laundry room which was the main reason for stay here and it was reasonably priced. TV was the smallest I've seen. Breakfast was chintzy, staff called it "grab &amp; go". Coffee, granola bars oatmeal in a cup, no place to sit and nothing really for kids. No restaurants in walking distance but there is a Domino's Pizza that's nearby. Request a room away from the freeway entrance as the traffic is noisy. More</t>
   </si>
   <si>
+    <t>Ltiggertaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r269605442-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1331,6 +1472,9 @@
     <t>I had book a smoking room with two beds a month in advance and two days before check in they called and said that the room was not available but they would give us two rooms for the price of one.  I was not happy but fine until I entered one of the rooms and it smelled like something had died in it.  I asked for another room which was better but needs maintenance the window lock did not work and the shower pull up was rusted and hard to get all the way up, the bed was comfortable.   When I asked what happened with the room with two beds I was told they had to remove the mattress from one of the beds, so in two days they could not get the mattress replaced.More</t>
   </si>
   <si>
+    <t>NJH1414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r252973840-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1358,6 +1502,9 @@
     <t>Was having a horrible day, traveling with an extremely tired 2 year old &amp; Kristen at the front desk really helped turned it around.  She was professional, friendly, helpful &amp; accommodating &amp; after the day I had, it was appreciated more than she'll ever know.  I would stay here again in a heartbeat &amp; would definitely recommend it to anyone in need of a temporary place to call home.More</t>
   </si>
   <si>
+    <t>SargiesMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r242920695-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1385,6 +1532,9 @@
     <t>This was our second stay at this specific property in Simi Valley.  It is conveniently located near freeway entrances, shopping and the Reagan Presidential Library.The property is well maintained and very clean.  The staff is very helpful and friendly. If you are able to find coupons or special deals, the rates are reasonable.Although, the hotel and grounds were clean, there was a lingering smell of cigarette smoke throughout the hallway on the third floor where our room was located.  Even though, we were in a non-smoking room, when we walked out into the hallway, the cigarette smell was strong.  When I mentioned this to Jesus, at the front desk, he was apologetic and said that the smoking rooms were down the hallway but that the indoor smoking policy is something that the management is reviewing and that it may be restricted in the future.  I certainly hope so since it is very unpleasant and the second hand smoke may even be harmful to those who have health issues such as COPD.Overall, I would still give this hotel an excellent rating.More</t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r239974910-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1412,6 +1562,9 @@
     <t>We turned up and they had lost our booking. thankfully I had a copy of it with me and they soon got us in a room. It is basic, but has a kitchen and reasonable beds. The furniture is plain, but the rooms are clean. Breakfast is non existent - subway around the corner. there are some permanent residents there by the looks. but its is an ok place to crash. NO night life whatsoever. so plan to have a car while you are there as you cant walk to things.More</t>
   </si>
   <si>
+    <t>ColoDivers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r239851849-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1431,6 +1584,9 @@
   </si>
   <si>
     <t>GREAT staff, but poorly maintained room.  Smelled like sweaty man, there was a thick layer of dust on every surface in the room, so I don't know if this room isn't used much, but I asked the front desk for cleaning supplies.  They offered to have the housekeeper come in, but it seemed easier to just do it myself so I knew it would get done.  Bed was terrible and pillows smelled like rotten, sweaty down feathers.More</t>
+  </si>
+  <si>
+    <t>Onemindspinning</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r192602413-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
@@ -1468,6 +1624,9 @@
 BEWARE any green space with...Tonight being my last night of a ten night stay, I'd like to give an honest review of my time here. My coworkers and I had several issues with this hotel from the beginning of our stay. First our rooms were not ready for us to check into when we arrived; we had to wait for about an hour in the parking lot while staff got our rooms together. Secondly our rooms were not cleaned properly, a coworkers bathtub and my tub as well had "body hair" located in the drains and on the shower curtains. The internet service they have set up is HORRIBLE! I had to contact customer service more than ten times with in the first 3 days of my stay because my devices would not link to the internet or the signals would fail. Doing most of my business through emails and online accounts, this is something you don't want to experience in 2014.Than my room phone wouldn't work so I could not call customer service, but to staffs regard they did fix my phone issue, it only took three employees and two hours to fix it,... but hey who needs phones or the internet when you travel for work these days!?!  The hotel also apparently has LONG TERM residents living here. These people have dogs which they walk around the surrounding hotel area so they can use the bathroom.BEWARE any green space with grass has dog poop EVERYWHERE.I was lucky and got a third floor room, my coworkers were not so lucky. All three of them reported they heard people fighting in hallways, making loud noises above them walking heavy, using personal vacuum cleaner at 6am, smoking in the hallways  etc etc......As for the staff, they have been kind and helpful as best as they can, but its been obvious to me and the others that this place is poorly managed and probably understaffed as well. Personally I wouldn't stay here if it wasn't for business or a few days stay. I'd like to include its been nice and quiet in my room and besides the technical issues and the apparent long term residents messing up the place, my stay has been decently average.More</t>
   </si>
   <si>
+    <t>MkAndrewA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r192186105-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1492,6 +1651,9 @@
     <t>Really good accommodation with a kitchen which we used.Great staff especially the manager.Great value especially on the weekly rate which is much cheaper than you get  by booking on hotel checking websites..SO BOOK DIRECT.Slight downsides...it is near the freeway but so is all of Simi.It's not luxurious but it is good value and the mid- section on the top floor allows smoking which you can't escape in the corridors or lift lobby.More</t>
   </si>
   <si>
+    <t>M khawn s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r189172954-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1507,6 +1669,9 @@
     <t>A very comfortable Extended Stay America hotel, Staff is very friendly and makes you feel at home. The rooms are clean and up to 2 people can have a nice stay,I am regularly stay in this Hotels.The staff are always friendly and remember us when I am return. clean and the service is excellent.</t>
   </si>
   <si>
+    <t>Paula R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r185358205-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1532,6 +1697,9 @@
   </si>
   <si>
     <t>I love the kitchen makes things so much easier. Pet friendly too all breeds!!! The rooms are nice and love the remodel. Any issue the staff will be very helpful!!!! I wish there was a pool!Thank you!More</t>
+  </si>
+  <si>
+    <t>ducksfan2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r184320974-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
@@ -1574,6 +1742,9 @@
 When I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were...I have stayed at other Extend Stay America hotels before and knew what to expect.  They are all pretty much the same.  The difference is this one in Simi Valley is very clean, well decorated, has a LCD TV with 2 Showtime channels, and a very accommodating and cheerful staff.  Here is what I got:Non-smoking room (although cigarette smoke does permeate the hallways).Air conditioner is quiet and efficient.Clean carpeting and floor (my socks didn't turn black from walking on the floor)Very comfortable pillows and bedFull size refrigerator that is super cold, got ice in a couple of hours.Plenty of bath towels (4 to be exact)Grab-and-go breakfast from 8am to 930am include fresh, juicy, crispy apples, oranges, Quaker Oats bars, Quaker Oats instant oatmeal packs, and small individually packaged muffinsWhen I was checking in, a customer ahead of me was complaining about something with her room key, I believe.  The night clerk apologized several times and walked her back to her room to ensure her safety upon entering the room.  After I got my key cards, she told she would call me in a few minutes to see if my room was satisfactory.  When I got to my room, both key cards wouldn't open the door.  I brought it to her attention and she apologize several times, and rekeyed the cards and offer to walk me to my room in case there were any other problems.  She followed me to the room and when I looked inside, it had everything I expected from Extended Stay, except this room was much nicer and cleaner.  Before leaving, she said to call her if I needed anything and that she was working until 1100pm.  When I found out breakfast ends at 930am and I wasn't planning on getting up until 945am, I contacted her and she permitted to get my breakfast now.  I went back to my room with my goodies and decided to try the apple.  It was super crispy unlike the mushy apples at most hotels.  Hey, the muffin was really good, so was the other muffin.  Oh well, I did save the oatmeal and bars for breakfast. The next morning, I mentioned to the day clerk that the internet did not work, although the laptop connected, a secondary firewall block the access.  The clerk and the manager were very friendly and apologized. The manager immediately called the tech people to address the issue, but I had to leave.  A wonderful experience, the staff and the hotel here knows how to do things right. I will stay here again in the future.This is a great place to stay if you're going to the Reagan Library or watch the Civil War reenactments in Moorpark.More</t>
   </si>
   <si>
+    <t>Jerry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r181596532-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1601,6 +1772,9 @@
     <t>The hotel is a very good value in the area and provide cleana  and comfortable room at a fair price. This is more geared to long term stays The grab and go breakfast is functional What makes the Extended Stay the a good value is not just the price but the staff that works there.More</t>
   </si>
   <si>
+    <t>Nanachi2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r171469964-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1619,6 +1793,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>schoep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r170491912-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1646,6 +1823,9 @@
     <t>Stayed at this property in June.  Bed was comfortable, room was spacious and did enjoy the kitchen.  Eventhough we never cooked in the room, it was nice having the fridge and microwave. Do make sure to get a 1st or 2nd floor because the third is for smokers and believe me, you can smell he smoke when exiting the elevator on the 3rd floor.  The "Breakfast on the Go" was not good.  Always the same muffins, Oatmeal to Go bars and coffee and juice.  We went out most of the time for breakfast.  Staff was friendly and accommodating.More</t>
   </si>
   <si>
+    <t>BDogLong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r170359949-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1661,6 +1841,9 @@
     <t>This is my third stay at this hotel. Really enjoy the full kitchen. I work late when on the road and it's really great to not have to go out for a midnight snack or hit a vending machine. I can fill my fridge and hit it any time I'm in my room. It's great. Beds are comfortable and everything is really clean. Front Desk personnel are always very welcoming. Great hotel!</t>
   </si>
   <si>
+    <t>Nancy55184</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r166180345-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1685,6 +1868,9 @@
     <t>There were some negative reviews here, but most of those referred to the state of repair of the hotel. Once I saw it had been recently renovated, I decided to take a chance. It was great. My husband and I stayed a week with our 3-yr old son.  My only concern was the lack of kid-safe areas right around the hotel, but we found a park not too far away. The room was clean, everything worked, and the beds were comfy. There were only 2 sets of dishes but the front desk gave us everything we needed.More</t>
   </si>
   <si>
+    <t>Amy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r166116361-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1703,6 +1889,9 @@
     <t>The staff is friendly and helpful. They were quick to answer questions and always had a smile! Very clean guest rooms. The full kitchen is great and very well kept. This was our first experience with an Extended Stay hotel and I would definitely recommend it. I really enjoyed being able to have home made healthy food instead of restaurant food during our stay. Try it!!More</t>
   </si>
   <si>
+    <t>dalessiopietro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r164661858-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1718,6 +1907,9 @@
     <t>I returned here for a stay with my retired mom and a friend for a one night getaway while traveling and I was still impressed with the service, facilities and smiles - almost a year later. They truly care about their guests and do all they can to make sure everyone is welcome and feels like family. I hope one day to actually spend more than one night at this property to fully realize the "home" experience.</t>
   </si>
   <si>
+    <t>Elyse H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r160843983-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1763,6 +1955,9 @@
     <t>I just wanted to comment on the redecorating job, love it! The staff there is so good, very helpful, just a cool place to spend your time when you're away from home because it feels so much like home. Good job Verica Weikal, Christine, and Norman More</t>
   </si>
   <si>
+    <t>Marie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r160001951-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1787,6 +1982,9 @@
     <t>Lovely building, rooms and amenities.  Excellent staff.  Grab and go breakfast left something to be desired but was adequate.  Very quiet and comfortable.  Also very close to the freeway and other businesses.  I was uncomfy in the bed during the night but I think that was from my days experience, the bed seemed comfortable enough.More</t>
   </si>
   <si>
+    <t>Viswa_309</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r156210189-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1841,6 +2039,9 @@
     <t>This is a transformed hotel and what a job they did! It used to be a shabby little place for the local homeless to stay. I heard it had been updated and since I enjoy the brand I decided to give it a try. Wow, I was completely thrilled. The staff is so caring and efficient. They were very welcoming and I felt like they really did care about how my visit was!  The rooms and common areas are immaculate. Great job to all!More</t>
   </si>
   <si>
+    <t>alice G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r153112976-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1859,6 +2060,9 @@
     <t>I was at Extended Stay America – Simi Valley, because my house in Wood Ranch was having repair work done.  I was very pleased with everything I encountered at this hotel. It looks inviting on the outside, clean grounds and well cared for.  A very friendly staff checked me in, and my room was very clean, fresh smelling and modern in decor. Somebody has obviously put thought into this layout and I had everything I needed.  I felt safe for myself and also parking my car. There are laundry machines on site, soda vending, and a quick and easy breakfast, selection of coffee flavors, assorted delicious muffins, granola bars, oatmeal and scrumptious fresh red apples and oranges.More</t>
   </si>
   <si>
+    <t>traveltime55_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r150837626-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1886,6 +2090,9 @@
     <t>We have stayed at other Simi Valley hotels and this is the top notch. They are professional, friendly and very helpful. Our room had no issues unlike some of the other locations we have stayed in Simi. Their location is somewhat out of the way, on the east side of Simi, but even traveling alone one would feel safe, also something we cannot say for the other locations in the area. The Grab and Go breakfast is superb unless you prefer the powdered eggs served at the Holiday Inn, or the runny plated Yogurt at the Grand Vista. All sarcasm aside we have to say that we fully enjoyed our visit at this location. We will definitely be back at this hotel.More</t>
   </si>
   <si>
+    <t>Katie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r149734379-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1910,6 +2117,9 @@
     <t>Extended Stay has great rooms for an even better price. But I would not recommend this hotel for groups. I reserved a good amount of rooms for out of town guests that were attending my brother's wedding. Communication with the manager was near impossible but once I finally got the reservation set up and the guests started calling to book rooms, they mentioned the bride and grooms names to get the discounted rate and no one ever knew what they were talking about. The groom still stayed at this hotel, but no guests did due to difficulty with the reservation. More</t>
   </si>
   <si>
+    <t>solo_traveler_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r149092301-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1937,6 +2147,9 @@
     <t>This hotel has been recently renovated so some of the earlier reviews may no longer apply.  The rooms are immaculate, with ample amenities such as kitchen utensils, a microwave and electric stove, coffee maker, etc.  The staff are very friendly and helpful, especially Christine who replaced the broken refrigerator in the middle of the night when I discovered it wasn't working.  Best of all, the room rates are nearly the cheapest in Simi Valley even for visitors who aren't staying longer than a week.  I would definitely recommend this hotel to everyone!More</t>
   </si>
   <si>
+    <t>CalypsoCat67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r147681994-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1961,6 +2174,9 @@
     <t>This was our first stay at this hotel and it will be our last.  The hallway outside our room smelled bad.  Our room looked like the floor had not been vacuumed and there was a foul smell in the kitchen.  When I went to take a bath, there was caked on soap on the side of the bathtub with someone else's public hair in it (GROSS!!).More</t>
   </si>
   <si>
+    <t>Cc Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r146927326-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -1985,6 +2201,9 @@
     <t>Very friendly staff! They will accomodate most situations and allow check-in time to fit your circumstances. Ive stayed at this hotel numerous of times this past year alone for business related purposes and I will recommend this hotel to anyone looking for temporary/short-term lodging. I felt at home each and every time I have visited with the amenites they have to offer and friendly employees. I am amazed at the customer service at the front desk-Carla, Verica (Mgr), Ashe, and Norman are outstandingly great to all the residents and very approachable in manner!!!! They are my favorite!! Unfortunately, the housekeeping staff are not bilingual however if there was anything I needed they would try their best to assist me or direct me in the right direction for further assistance. Maintenance are VERY prompt at responding to calls and services I have never waited more than 30 minutes for a non urgent call. Lastly, I felt secure! There are a FEW places in Los Angeles that I have felt comfortable, at ease, peaceful, and relaxing--this place of residence Ive have to say is would be number one at fufilling my needs. If you need a place to visit while you are in town, go there...YOU WILL FEEL LIKE HOME!More</t>
   </si>
   <si>
+    <t>Emma P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r146086018-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2012,6 +2231,9 @@
     <t>I've never stayed at an Extended Stay hotel and wasn't sure what to expect. The front desk staff makes this hotel!!! Great people from check in to check out. My room was spotless, quiet and very nice. It's location is extremely convenient. It's right by a few places to eat and freeway access is right there. Would recommend.More</t>
   </si>
   <si>
+    <t>Destini T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r142108502-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2039,6 +2261,9 @@
     <t>Newly renovated hotel with Art work on the walls! We were in the area to visit the Ronald Reagan Library. It is a beautiful property with wonderful staff members. This hotel is on the east side of Simi but easy access to 118 and just 10 minutes drive to the Ronald Reagan Library.More</t>
   </si>
   <si>
+    <t>Ronnie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r141852285-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2063,6 +2288,9 @@
     <t>The most important thing to say is that I left my Nikon camera batter/charger/cord in the room, and did not realize it until I was 400 miles away. I phoned the Hotel, and NORMAN assisted me IMMEDIATELY by going up to the room I had checked out of and locating the valuable items I had left behind. He took the time and trouble to write down my son's name who would be coming to pick up my things. He then set aside my items and ensured that they were returned to my son.THANK YOU, NORMAN!!The hotel itself was MUCH nicer than the other EMA's I have stayed in. It was clean, quiet and well=appointed. They even had fresh apples at the front desk.More</t>
   </si>
   <si>
+    <t>mancehstertraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r141794124-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2087,6 +2315,9 @@
     <t>Lovely stay here. Friendly staff, nice big clean room. Great shower. Is a bit in the middle of no where but we found places to eat around there. Only downside i would say is its not the quietest of hotels, its quite near a highway and the A/C is quite noisy as well. But despite that overall I Would definately use this hotel again.More</t>
   </si>
   <si>
+    <t>carla k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r140345259-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2111,6 +2342,9 @@
     <t>Hello my name is Carla i just want to how peacefull this place is.If i had a choice of any hotel this is the one i would pick ,all the employes are very nice. I have several friends that stay here and they all have nothing bad to say about it.My brother and i have beeen here sence sep.8,2012 and plan to be here for another week nobody bothers us and that's what we like.More</t>
   </si>
   <si>
+    <t>Polka H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r136837043-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2138,6 +2372,9 @@
     <t>I always wanted to try Extended Stay America, so I did this time when my boyfriend came to visit me. The location is really convenient, right off at freeway exist. (the noise level is minimum, no freeway traffic noise when you are in the room) The service was great. they always seem a little busy but every staff is always so helpful. special thanks to Kristin. she helped us alot. The room is clean and no weird smell. I was worry the room would smell all nasty and oily because they have a mini kitchen in the room, fortunately, it doesnt. The bathroom is big. big space between mirror and toilet and shower area. :) The bed is comfortable. (I wish the blanket could be a little bit thicker... not sure it is cuz its summer season, so they switch to a thinner blanket or something..) 1 dining table and 1 office table and 1 chair each for each table. plenty office space. I wouldnt come back here for the regular room price, I got this room on promo price and it was an excellent deal! :) Overall, looking forward to come back here.More</t>
   </si>
   <si>
+    <t>RetChief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r135973027-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2162,6 +2399,9 @@
     <t>My experience during our stay was horrible.  Upon check-in was told they served breakfast in the morning between 6:00-9:00.  Showed up in the lobby and the coffee was the highlight at best.  Don't tell guests there is breakfast if you put out breakfast snacks.  Checked in on July 18th.  Smelled something burning on July 20th in the morning.  It appeared to be the A/C.  Unplugged the unit and notified the front desk.  They told me maintenance had the day off, but they would call. Coming back to the room that afternoon, no A/C, no maintenance, no word and no offer to change rooms.  Same thing happened again on July 30th.  Burning smell in the A/C.  Mentioned this again upon checkout on July 31st.  No apology, no offer of compensation, she just took down the room number.  If they didn't care, why should I.  We will never again stay at any one of the Exteneded Stay properties.  Many more perks and service from other hotel chains.More</t>
   </si>
   <si>
+    <t>Strasburg_Allen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r134398056-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2186,6 +2426,9 @@
     <t>Staff get an A+, clean, gr8 location, and you can cook your own food in the studio apt? will stay here again.central to all of our LA destinations.. and about 30 minutes or less away from all. nothing badMore</t>
   </si>
   <si>
+    <t>Kraig E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r131939236-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2213,6 +2456,9 @@
     <t>I have stayed at the extended stay many times and my stay at this particualar simi valley location was incredible. The service and management sre so professional and kind. They treated me and my family as we were family. Mrs Verickal (Manager) is so kind and considerate. I do recommend extended stay and most definitely staying at the simi valley location. EXCELLENT !More</t>
   </si>
   <si>
+    <t>lkcollins75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r130242847-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2234,6 +2480,9 @@
     <t>We asked for non-smoking, and the room was supposed to have been, but it REEKED. So we asked to be moved and were. Then the advertised in-room Wifi never worked during the entire stay, despite efforts of the staff. (We travel a LOT and always use the hotel Wifi. This is the only time we've ever had a problem.) It was relatively noisy, and apparently they have feather pillows, judging by the loose feather pillows in both rooms. Not great for allergies. Finally, the 'grab-n-go' breakfast was horrible. Their advertising shows fresh fruit and pastries. Instead, there was a basket of tired-looking apples and packaged cereal bars and muffins. The choices in the vending machines were better.The only points are for the staff who were unfailingly nice and patient.My main issue was with the first room. Apparently housekeeping had not reported the problem or handled it appropriately. The hotel was in the right location, but that was all it had going for it.More</t>
   </si>
   <si>
+    <t>Shug_G_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r127472044-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
   </si>
   <si>
@@ -2253,6 +2502,9 @@
   </si>
   <si>
     <t>I've stayed at this facility many times because of its location and easy access off the 118. I stayed there last night for the first time since their make-over...what a difference!  The rooms are gorgeous, great colors, very professionally done.  The staff has always been great but with this upgrade it's just that much better for the money.  I stayed in a queen room for $88 including tax.  Thank you!Traveling SteveMore</t>
+  </si>
+  <si>
+    <t>CML342</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33093-d506464-r126197964-Extended_Stay_America_Los_Angeles_Simi_Valley-Simi_Valley_California.html</t>
@@ -2786,43 +3038,47 @@
       <c r="A2" t="n">
         <v>37419</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146413</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2834,56 +3090,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37419</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2905,56 +3165,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37419</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2972,56 +3236,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37419</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146416</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3037,56 +3305,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37419</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146417</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3108,56 +3380,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37419</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>4958</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3179,56 +3455,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37419</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3246,56 +3526,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37419</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146419</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3317,56 +3601,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37419</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146420</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3388,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37419</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3459,56 +3751,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37419</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146422</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3530,56 +3826,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37419</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146423</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3601,56 +3901,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37419</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146424</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3672,56 +3976,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37419</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146425</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3743,56 +4051,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37419</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3814,56 +4126,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37419</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146427</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3885,56 +4201,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37419</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146428</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3956,56 +4276,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37419</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146429</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4025,56 +4349,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37419</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4096,56 +4424,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37419</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146430</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4167,56 +4499,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37419</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146431</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4228,56 +4564,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37419</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>4577</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4295,56 +4635,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37419</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146432</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4362,56 +4706,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37419</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>262</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4423,56 +4771,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37419</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146433</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4490,56 +4842,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37419</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>16440</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4551,56 +4907,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37419</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>55279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4620,50 +4980,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37419</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146434</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O29" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4681,50 +5045,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37419</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4742,50 +5110,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37419</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4803,56 +5175,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37419</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4866,50 +5242,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37419</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146438</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4927,56 +5307,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37419</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146439</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4992,56 +5376,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37419</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146440</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="O35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5057,56 +5445,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="X35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37419</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146441</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5118,56 +5510,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="X36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37419</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>15878</v>
+      </c>
+      <c r="C37" t="s">
+        <v>371</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5183,56 +5579,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37419</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>3019</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="O38" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5250,56 +5650,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37419</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146442</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5315,56 +5719,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37419</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146443</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5382,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="X40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="Y40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37419</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>115512</v>
+      </c>
+      <c r="C41" t="s">
+        <v>410</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="J41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="K41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="L41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5447,56 +5859,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="X41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37419</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146444</v>
+      </c>
+      <c r="C42" t="s">
+        <v>419</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5508,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37419</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146445</v>
+      </c>
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="O43" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5573,56 +5993,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37419</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146446</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5636,50 +6060,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37419</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146447</v>
+      </c>
+      <c r="C45" t="s">
+        <v>446</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="O45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5691,56 +6119,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37419</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>27976</v>
+      </c>
+      <c r="C46" t="s">
+        <v>455</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="O46" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5758,50 +6190,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37419</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>47378</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="O47" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5813,56 +6249,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37419</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146448</v>
+      </c>
+      <c r="C48" t="s">
+        <v>472</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5880,56 +6320,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="X48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="Y48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37419</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146449</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5941,56 +6385,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37419</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146450</v>
+      </c>
+      <c r="C50" t="s">
+        <v>492</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O50" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6006,56 +6454,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="X50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="Y50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37419</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="J51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="K51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6077,56 +6529,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="X51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Y51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37419</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146451</v>
+      </c>
+      <c r="C52" t="s">
+        <v>512</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="J52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="K52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="L52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6148,56 +6604,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="X52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37419</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146452</v>
+      </c>
+      <c r="C53" t="s">
+        <v>520</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="J53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="K53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="L53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6221,50 +6681,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37419</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>528</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="J54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="K54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="L54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="O54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6286,56 +6750,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="X54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="Y54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37419</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146454</v>
+      </c>
+      <c r="C55" t="s">
+        <v>537</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6359,50 +6827,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37419</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>31095</v>
+      </c>
+      <c r="C56" t="s">
+        <v>543</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="J56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="K56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6414,56 +6886,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="X56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="Y56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37419</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146455</v>
+      </c>
+      <c r="C57" t="s">
+        <v>553</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="J57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="K57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="L57" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="O57" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6485,56 +6961,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="X57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="Y57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37419</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C58" t="s">
+        <v>562</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="J58" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="K58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="L58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6556,56 +7036,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="X58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="Y58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37419</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146456</v>
+      </c>
+      <c r="C59" t="s">
+        <v>572</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="J59" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="K59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="L59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6629,50 +7113,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37419</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146457</v>
+      </c>
+      <c r="C60" t="s">
+        <v>579</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="J60" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="K60" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="L60" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O60" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6694,56 +7182,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="X60" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="Y60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37419</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146458</v>
+      </c>
+      <c r="C61" t="s">
+        <v>589</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="J61" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="K61" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="L61" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6767,50 +7259,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37419</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146459</v>
+      </c>
+      <c r="C62" t="s">
+        <v>595</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="J62" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="K62" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="L62" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6822,56 +7318,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="X62" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="Y62" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37419</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>25715</v>
+      </c>
+      <c r="C63" t="s">
+        <v>604</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="J63" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="K63" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="L63" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6893,56 +7393,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="X63" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="Y63" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37419</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146460</v>
+      </c>
+      <c r="C64" t="s">
+        <v>611</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="J64" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="K64" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="L64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6966,50 +7470,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37419</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146461</v>
+      </c>
+      <c r="C65" t="s">
+        <v>617</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="J65" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="K65" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="L65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7031,47 +7539,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="X65" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="Y65" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37419</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146425</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="J66" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="K66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="L66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -7098,56 +7610,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="X66" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="Y66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37419</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C67" t="s">
+        <v>633</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="J67" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="K67" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="L67" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="O67" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7169,56 +7685,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="X67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="Y67" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37419</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146462</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="J68" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="K68" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="L68" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7240,56 +7760,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="X68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="Y68" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37419</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146457</v>
+      </c>
+      <c r="C69" t="s">
+        <v>589</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="J69" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="K69" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="L69" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7311,56 +7835,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="X69" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="Y69" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37419</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>661</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="J70" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="L70" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="O70" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7382,56 +7910,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="X70" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="Y70" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37419</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146464</v>
+      </c>
+      <c r="C71" t="s">
+        <v>668</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="L71" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7453,47 +7985,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="X71" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="Y71" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37419</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>3599</v>
+      </c>
+      <c r="C72" t="s">
+        <v>678</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="J72" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="K72" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="L72" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
@@ -7520,56 +8056,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="X72" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="Y72" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37419</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146465</v>
+      </c>
+      <c r="C73" t="s">
+        <v>687</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="J73" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="K73" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="L73" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="O73" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7591,56 +8131,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="X73" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="Y73" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37419</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146466</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="J74" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="L74" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7662,56 +8206,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="X74" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="Y74" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37419</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146467</v>
+      </c>
+      <c r="C75" t="s">
+        <v>706</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="K75" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="L75" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7733,56 +8281,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="X75" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="Y75" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37419</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>51550</v>
+      </c>
+      <c r="C76" t="s">
+        <v>715</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="J76" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="K76" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="L76" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="O76" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7804,56 +8356,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="X76" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="Y76" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37419</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146468</v>
+      </c>
+      <c r="C77" t="s">
+        <v>725</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="J77" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="K77" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="L77" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="O77" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7875,56 +8431,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="X77" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="Y77" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37419</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>108516</v>
+      </c>
+      <c r="C78" t="s">
+        <v>735</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="J78" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="K78" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="L78" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7946,47 +8506,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="X78" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="Y78" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37419</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146469</v>
+      </c>
+      <c r="C79" t="s">
+        <v>744</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="J79" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="K79" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="L79" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -8013,56 +8577,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="X79" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="Y79" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37419</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146470</v>
+      </c>
+      <c r="C80" t="s">
+        <v>753</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="J80" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="K80" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="L80" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8084,56 +8652,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="X80" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="Y80" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37419</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146471</v>
+      </c>
+      <c r="C81" t="s">
+        <v>762</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="J81" t="s">
-        <v>687</v>
+        <v>765</v>
       </c>
       <c r="K81" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="L81" t="s">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="O81" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8155,56 +8727,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="X81" t="s">
-        <v>692</v>
+        <v>770</v>
       </c>
       <c r="Y81" t="s">
-        <v>693</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37419</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146472</v>
+      </c>
+      <c r="C82" t="s">
+        <v>772</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
       <c r="J82" t="s">
-        <v>696</v>
+        <v>775</v>
       </c>
       <c r="K82" t="s">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="L82" t="s">
-        <v>698</v>
+        <v>777</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8226,56 +8802,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="X82" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="Y82" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37419</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146473</v>
+      </c>
+      <c r="C83" t="s">
+        <v>781</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="J83" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
       <c r="K83" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="L83" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8297,56 +8877,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
       <c r="X83" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="Y83" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37419</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146474</v>
+      </c>
+      <c r="C84" t="s">
+        <v>790</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>711</v>
+        <v>792</v>
       </c>
       <c r="J84" t="s">
-        <v>712</v>
+        <v>793</v>
       </c>
       <c r="K84" t="s">
-        <v>713</v>
+        <v>794</v>
       </c>
       <c r="L84" t="s">
-        <v>714</v>
+        <v>795</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>715</v>
+        <v>796</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8368,56 +8952,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
       <c r="X84" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="Y84" t="s">
-        <v>718</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37419</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C85" t="s">
+        <v>800</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>720</v>
+        <v>802</v>
       </c>
       <c r="J85" t="s">
-        <v>721</v>
+        <v>803</v>
       </c>
       <c r="K85" t="s">
-        <v>722</v>
+        <v>804</v>
       </c>
       <c r="L85" t="s">
-        <v>723</v>
+        <v>805</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>724</v>
+        <v>806</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>2</v>
@@ -8439,56 +9027,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
       <c r="X85" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="Y85" t="s">
-        <v>725</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37419</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146476</v>
+      </c>
+      <c r="C86" t="s">
+        <v>808</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>726</v>
+        <v>809</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="J86" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
       <c r="K86" t="s">
-        <v>729</v>
+        <v>812</v>
       </c>
       <c r="L86" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>731</v>
+        <v>814</v>
       </c>
       <c r="O86" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8510,56 +9102,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
       <c r="X86" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="Y86" t="s">
-        <v>732</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37419</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146477</v>
+      </c>
+      <c r="C87" t="s">
+        <v>816</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>733</v>
+        <v>817</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="J87" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
       <c r="K87" t="s">
-        <v>736</v>
+        <v>820</v>
       </c>
       <c r="L87" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8581,13 +9177,13 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
       <c r="X87" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="Y87" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_262.xlsx
@@ -3039,7 +3039,7 @@
         <v>37419</v>
       </c>
       <c r="B2" t="n">
-        <v>146413</v>
+        <v>177752</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3104,7 +3104,7 @@
         <v>37419</v>
       </c>
       <c r="B3" t="n">
-        <v>146414</v>
+        <v>177753</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3179,7 +3179,7 @@
         <v>37419</v>
       </c>
       <c r="B4" t="n">
-        <v>146415</v>
+        <v>177754</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3250,7 +3250,7 @@
         <v>37419</v>
       </c>
       <c r="B5" t="n">
-        <v>146416</v>
+        <v>177755</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3319,7 +3319,7 @@
         <v>37419</v>
       </c>
       <c r="B6" t="n">
-        <v>146417</v>
+        <v>177756</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -3469,7 +3469,7 @@
         <v>37419</v>
       </c>
       <c r="B8" t="n">
-        <v>146418</v>
+        <v>177757</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3540,7 +3540,7 @@
         <v>37419</v>
       </c>
       <c r="B9" t="n">
-        <v>146419</v>
+        <v>177758</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3615,7 +3615,7 @@
         <v>37419</v>
       </c>
       <c r="B10" t="n">
-        <v>146420</v>
+        <v>177759</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3690,7 +3690,7 @@
         <v>37419</v>
       </c>
       <c r="B11" t="n">
-        <v>146421</v>
+        <v>177760</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -3765,7 +3765,7 @@
         <v>37419</v>
       </c>
       <c r="B12" t="n">
-        <v>146422</v>
+        <v>177761</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -3840,7 +3840,7 @@
         <v>37419</v>
       </c>
       <c r="B13" t="n">
-        <v>146423</v>
+        <v>177762</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -3915,7 +3915,7 @@
         <v>37419</v>
       </c>
       <c r="B14" t="n">
-        <v>146424</v>
+        <v>177763</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -3990,7 +3990,7 @@
         <v>37419</v>
       </c>
       <c r="B15" t="n">
-        <v>146425</v>
+        <v>177764</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -4065,7 +4065,7 @@
         <v>37419</v>
       </c>
       <c r="B16" t="n">
-        <v>146426</v>
+        <v>146427</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -4140,7 +4140,7 @@
         <v>37419</v>
       </c>
       <c r="B17" t="n">
-        <v>146427</v>
+        <v>177765</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -4215,7 +4215,7 @@
         <v>37419</v>
       </c>
       <c r="B18" t="n">
-        <v>146428</v>
+        <v>177766</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -4290,7 +4290,7 @@
         <v>37419</v>
       </c>
       <c r="B19" t="n">
-        <v>146429</v>
+        <v>177767</v>
       </c>
       <c r="C19" t="s">
         <v>211</v>
@@ -4438,7 +4438,7 @@
         <v>37419</v>
       </c>
       <c r="B21" t="n">
-        <v>146430</v>
+        <v>177768</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4513,7 +4513,7 @@
         <v>37419</v>
       </c>
       <c r="B22" t="n">
-        <v>146431</v>
+        <v>177769</v>
       </c>
       <c r="C22" t="s">
         <v>238</v>
@@ -4649,7 +4649,7 @@
         <v>37419</v>
       </c>
       <c r="B24" t="n">
-        <v>146432</v>
+        <v>177770</v>
       </c>
       <c r="C24" t="s">
         <v>255</v>
@@ -4785,7 +4785,7 @@
         <v>37419</v>
       </c>
       <c r="B26" t="n">
-        <v>146433</v>
+        <v>177771</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
@@ -4988,7 +4988,7 @@
         <v>37419</v>
       </c>
       <c r="B29" t="n">
-        <v>146434</v>
+        <v>177772</v>
       </c>
       <c r="C29" t="s">
         <v>299</v>
@@ -5053,7 +5053,7 @@
         <v>37419</v>
       </c>
       <c r="B30" t="n">
-        <v>146435</v>
+        <v>177773</v>
       </c>
       <c r="C30" t="s">
         <v>306</v>
@@ -5118,7 +5118,7 @@
         <v>37419</v>
       </c>
       <c r="B31" t="n">
-        <v>146436</v>
+        <v>177774</v>
       </c>
       <c r="C31" t="s">
         <v>314</v>
@@ -5189,7 +5189,7 @@
         <v>37419</v>
       </c>
       <c r="B32" t="n">
-        <v>146437</v>
+        <v>177775</v>
       </c>
       <c r="C32" t="s">
         <v>324</v>
@@ -5250,7 +5250,7 @@
         <v>37419</v>
       </c>
       <c r="B33" t="n">
-        <v>146438</v>
+        <v>177776</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -5321,7 +5321,7 @@
         <v>37419</v>
       </c>
       <c r="B34" t="n">
-        <v>146439</v>
+        <v>177777</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -5390,7 +5390,7 @@
         <v>37419</v>
       </c>
       <c r="B35" t="n">
-        <v>146440</v>
+        <v>177778</v>
       </c>
       <c r="C35" t="s">
         <v>351</v>
@@ -5459,7 +5459,7 @@
         <v>37419</v>
       </c>
       <c r="B36" t="n">
-        <v>146441</v>
+        <v>177779</v>
       </c>
       <c r="C36" t="s">
         <v>361</v>
@@ -5664,7 +5664,7 @@
         <v>37419</v>
       </c>
       <c r="B39" t="n">
-        <v>146442</v>
+        <v>177780</v>
       </c>
       <c r="C39" t="s">
         <v>390</v>
@@ -5733,7 +5733,7 @@
         <v>37419</v>
       </c>
       <c r="B40" t="n">
-        <v>146443</v>
+        <v>177781</v>
       </c>
       <c r="C40" t="s">
         <v>400</v>
@@ -5873,7 +5873,7 @@
         <v>37419</v>
       </c>
       <c r="B42" t="n">
-        <v>146444</v>
+        <v>177782</v>
       </c>
       <c r="C42" t="s">
         <v>419</v>
@@ -5938,7 +5938,7 @@
         <v>37419</v>
       </c>
       <c r="B43" t="n">
-        <v>146445</v>
+        <v>177783</v>
       </c>
       <c r="C43" t="s">
         <v>429</v>
@@ -6007,7 +6007,7 @@
         <v>37419</v>
       </c>
       <c r="B44" t="n">
-        <v>146446</v>
+        <v>177784</v>
       </c>
       <c r="C44" t="s">
         <v>438</v>
@@ -6068,7 +6068,7 @@
         <v>37419</v>
       </c>
       <c r="B45" t="n">
-        <v>146447</v>
+        <v>177785</v>
       </c>
       <c r="C45" t="s">
         <v>446</v>
@@ -6263,7 +6263,7 @@
         <v>37419</v>
       </c>
       <c r="B48" t="n">
-        <v>146448</v>
+        <v>177786</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
@@ -6334,7 +6334,7 @@
         <v>37419</v>
       </c>
       <c r="B49" t="n">
-        <v>146449</v>
+        <v>177787</v>
       </c>
       <c r="C49" t="s">
         <v>482</v>
@@ -6399,7 +6399,7 @@
         <v>37419</v>
       </c>
       <c r="B50" t="n">
-        <v>146450</v>
+        <v>177788</v>
       </c>
       <c r="C50" t="s">
         <v>492</v>
@@ -6543,7 +6543,7 @@
         <v>37419</v>
       </c>
       <c r="B52" t="n">
-        <v>146451</v>
+        <v>177789</v>
       </c>
       <c r="C52" t="s">
         <v>512</v>
@@ -6618,7 +6618,7 @@
         <v>37419</v>
       </c>
       <c r="B53" t="n">
-        <v>146452</v>
+        <v>177790</v>
       </c>
       <c r="C53" t="s">
         <v>520</v>
@@ -6689,7 +6689,7 @@
         <v>37419</v>
       </c>
       <c r="B54" t="n">
-        <v>146453</v>
+        <v>177791</v>
       </c>
       <c r="C54" t="s">
         <v>528</v>
@@ -6764,7 +6764,7 @@
         <v>37419</v>
       </c>
       <c r="B55" t="n">
-        <v>146454</v>
+        <v>177792</v>
       </c>
       <c r="C55" t="s">
         <v>537</v>
@@ -6900,7 +6900,7 @@
         <v>37419</v>
       </c>
       <c r="B57" t="n">
-        <v>146455</v>
+        <v>177793</v>
       </c>
       <c r="C57" t="s">
         <v>553</v>
@@ -7050,7 +7050,7 @@
         <v>37419</v>
       </c>
       <c r="B59" t="n">
-        <v>146456</v>
+        <v>177794</v>
       </c>
       <c r="C59" t="s">
         <v>572</v>
@@ -7121,7 +7121,7 @@
         <v>37419</v>
       </c>
       <c r="B60" t="n">
-        <v>146457</v>
+        <v>177795</v>
       </c>
       <c r="C60" t="s">
         <v>579</v>
@@ -7196,7 +7196,7 @@
         <v>37419</v>
       </c>
       <c r="B61" t="n">
-        <v>146458</v>
+        <v>146429</v>
       </c>
       <c r="C61" t="s">
         <v>589</v>
@@ -7267,7 +7267,7 @@
         <v>37419</v>
       </c>
       <c r="B62" t="n">
-        <v>146459</v>
+        <v>177796</v>
       </c>
       <c r="C62" t="s">
         <v>595</v>
@@ -7407,7 +7407,7 @@
         <v>37419</v>
       </c>
       <c r="B64" t="n">
-        <v>146460</v>
+        <v>177797</v>
       </c>
       <c r="C64" t="s">
         <v>611</v>
@@ -7478,7 +7478,7 @@
         <v>37419</v>
       </c>
       <c r="B65" t="n">
-        <v>146461</v>
+        <v>177798</v>
       </c>
       <c r="C65" t="s">
         <v>617</v>
@@ -7553,7 +7553,7 @@
         <v>37419</v>
       </c>
       <c r="B66" t="n">
-        <v>146425</v>
+        <v>146427</v>
       </c>
       <c r="C66" t="s">
         <v>183</v>
@@ -7699,7 +7699,7 @@
         <v>37419</v>
       </c>
       <c r="B68" t="n">
-        <v>146462</v>
+        <v>177799</v>
       </c>
       <c r="C68" t="s">
         <v>642</v>
@@ -7774,7 +7774,7 @@
         <v>37419</v>
       </c>
       <c r="B69" t="n">
-        <v>146457</v>
+        <v>146429</v>
       </c>
       <c r="C69" t="s">
         <v>589</v>
@@ -7849,7 +7849,7 @@
         <v>37419</v>
       </c>
       <c r="B70" t="n">
-        <v>146463</v>
+        <v>177800</v>
       </c>
       <c r="C70" t="s">
         <v>661</v>
@@ -7924,7 +7924,7 @@
         <v>37419</v>
       </c>
       <c r="B71" t="n">
-        <v>146464</v>
+        <v>177801</v>
       </c>
       <c r="C71" t="s">
         <v>668</v>
@@ -8070,7 +8070,7 @@
         <v>37419</v>
       </c>
       <c r="B73" t="n">
-        <v>146465</v>
+        <v>177802</v>
       </c>
       <c r="C73" t="s">
         <v>687</v>
@@ -8145,7 +8145,7 @@
         <v>37419</v>
       </c>
       <c r="B74" t="n">
-        <v>146466</v>
+        <v>177803</v>
       </c>
       <c r="C74" t="s">
         <v>697</v>
@@ -8220,7 +8220,7 @@
         <v>37419</v>
       </c>
       <c r="B75" t="n">
-        <v>146467</v>
+        <v>177804</v>
       </c>
       <c r="C75" t="s">
         <v>706</v>
@@ -8370,7 +8370,7 @@
         <v>37419</v>
       </c>
       <c r="B77" t="n">
-        <v>146468</v>
+        <v>177805</v>
       </c>
       <c r="C77" t="s">
         <v>725</v>
@@ -8520,7 +8520,7 @@
         <v>37419</v>
       </c>
       <c r="B79" t="n">
-        <v>146469</v>
+        <v>177806</v>
       </c>
       <c r="C79" t="s">
         <v>744</v>
@@ -8591,7 +8591,7 @@
         <v>37419</v>
       </c>
       <c r="B80" t="n">
-        <v>146470</v>
+        <v>177807</v>
       </c>
       <c r="C80" t="s">
         <v>753</v>
@@ -8666,7 +8666,7 @@
         <v>37419</v>
       </c>
       <c r="B81" t="n">
-        <v>146471</v>
+        <v>177808</v>
       </c>
       <c r="C81" t="s">
         <v>762</v>
@@ -8741,7 +8741,7 @@
         <v>37419</v>
       </c>
       <c r="B82" t="n">
-        <v>146472</v>
+        <v>177809</v>
       </c>
       <c r="C82" t="s">
         <v>772</v>
@@ -8816,7 +8816,7 @@
         <v>37419</v>
       </c>
       <c r="B83" t="n">
-        <v>146473</v>
+        <v>177810</v>
       </c>
       <c r="C83" t="s">
         <v>781</v>
@@ -8891,7 +8891,7 @@
         <v>37419</v>
       </c>
       <c r="B84" t="n">
-        <v>146474</v>
+        <v>177811</v>
       </c>
       <c r="C84" t="s">
         <v>790</v>
@@ -8966,7 +8966,7 @@
         <v>37419</v>
       </c>
       <c r="B85" t="n">
-        <v>146475</v>
+        <v>177812</v>
       </c>
       <c r="C85" t="s">
         <v>800</v>
@@ -9041,7 +9041,7 @@
         <v>37419</v>
       </c>
       <c r="B86" t="n">
-        <v>146476</v>
+        <v>177813</v>
       </c>
       <c r="C86" t="s">
         <v>808</v>
@@ -9116,7 +9116,7 @@
         <v>37419</v>
       </c>
       <c r="B87" t="n">
-        <v>146477</v>
+        <v>177814</v>
       </c>
       <c r="C87" t="s">
         <v>816</v>
